--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3448396.021993704</v>
+        <v>3502943.11945155</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264332.657095523</v>
+        <v>2104816.956126889</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2140274.711873291</v>
+        <v>826053.9034197849</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6392196.378995028</v>
+        <v>6662921.998426844</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>22.16329766222912</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>291.709795132984</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.146108322222685</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -789,13 +791,13 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>175.2139736830814</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>91.98633910696991</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.631130619742722</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>159.8002412057219</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>28.534929991488</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -911,10 +913,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>194.8016340406826</v>
       </c>
       <c r="V7" t="n">
-        <v>184.9234256895343</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>146.2106055050222</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>368.2586139054725</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>201.5489998671752</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>5.901147974459909</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>88.24365047454729</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.264869821460747</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
@@ -1537,7 +1539,7 @@
         <v>60.01194954507307</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484006</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G13" t="n">
         <v>72.58023888723247</v>
@@ -1546,7 +1548,7 @@
         <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
@@ -1613,10 +1615,10 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603045</v>
+        <v>77.77021215229183</v>
       </c>
       <c r="F14" t="n">
-        <v>318.7342196110055</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>315.0398534825604</v>
@@ -1625,7 +1627,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -1664,16 +1666,16 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>44.6250391542916</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497644</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>302.4985237799665</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
-        <v>295.2524720077822</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>287.5954430211825</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>304.5664151603045</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>318.7342196110055</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>315.0398534825604</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>226.8509454548578</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>127.274321941861</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>159.2039277954309</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>244.6944667292003</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>273.297770207079</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>158.3905257354139</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.36466403007182</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>74.51179228035423</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>60.08550749219395</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>60.01194954507307</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>61.76140096484033</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>72.58023888723247</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>59.93249105380451</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>37.77220663497644</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.67070499943236</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>106.7966485049597</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>139.3705868391318</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>188.5931293662016</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>169.3282772530676</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>186.5058235738177</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>137.7482445205303</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>126.8896660972066</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>302.4985237799665</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>239.4838914695199</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>304.5664151603045</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>318.7342196110055</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>315.0398534825604</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>226.8509454548578</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>70.8571450340435</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T20" t="n">
-        <v>127.274321941861</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>244.6944667292003</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>273.297770207079</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>291.5668045419573</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>298.5345275142885</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.36466403007182</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>74.51179228035423</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>60.08550749219395</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>60.01194954507307</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>61.76140096484033</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>72.58023888723247</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>59.93249105380451</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>37.77220663497644</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.67070499943236</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>106.7966485049597</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>139.3705868391318</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>188.5931293662016</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>169.3282772530676</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>186.5058235738177</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>137.7482445205303</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>126.8896660972066</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>302.4985237799665</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>287.5954430211825</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>54.28846454906805</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>318.7342196110055</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>315.0398534825604</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>226.8509454548578</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>42.96247126414337</v>
+        <v>6.593776422875433</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.8571450340435</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T23" t="n">
-        <v>127.274321941861</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
-        <v>159.2039277954309</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>244.6944667292003</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>273.297770207079</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>291.5668045419573</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>298.5345275142885</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.36466403007182</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>74.51179228035423</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>60.08550749219395</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>60.01194954507307</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>61.76140096484033</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>72.58023888723247</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>59.93249105380451</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>37.77220663497644</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.67070499943236</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>106.7966485049597</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>139.3705868391318</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>188.5931293662016</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>169.3282772530676</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>186.5058235738177</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>137.7482445205303</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>126.8896660972066</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>340.1115083572997</v>
+        <v>182.776950617098</v>
       </c>
       <c r="C26" t="n">
-        <v>332.8654565851155</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
-        <v>325.2084275985158</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
-        <v>356.3472041883388</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
-        <v>352.6528380598937</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H26" t="n">
-        <v>264.4639300321911</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>80.57545584147665</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>108.4701296113768</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>187.3766334415236</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
-        <v>329.1797891192905</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>336.1475120916217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>97.54547563113779</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.28368957676564</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>176.9835714164651</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
-        <v>226.2061139435349</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>206.9412618304008</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
-        <v>224.118808151151</v>
+        <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>175.3612290978635</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
-        <v>131.5672929216205</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2803,7 @@
         <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110055</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>315.0398534825604</v>
@@ -2810,7 +2812,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>130.5391917633218</v>
       </c>
       <c r="V29" t="n">
-        <v>99.46191014565997</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
         <v>273.297770207079</v>
@@ -2968,7 +2970,7 @@
         <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662018</v>
       </c>
       <c r="V31" t="n">
         <v>169.3282772530676</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>302.4985237799664</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C32" t="n">
-        <v>295.2524720077822</v>
+        <v>258.8837771665146</v>
       </c>
       <c r="D32" t="n">
-        <v>287.5954430211825</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E32" t="n">
-        <v>304.5664151603044</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F32" t="n">
-        <v>318.7342196110055</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G32" t="n">
-        <v>315.0398534825604</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H32" t="n">
-        <v>226.8509454548578</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T32" t="n">
-        <v>127.274321941861</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U32" t="n">
-        <v>26.02764898888731</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V32" t="n">
-        <v>244.6944667292003</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W32" t="n">
-        <v>273.2977702070789</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X32" t="n">
-        <v>291.5668045419573</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.36466403007181</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C34" t="n">
-        <v>74.51179228035421</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D34" t="n">
-        <v>60.08550749219394</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E34" t="n">
-        <v>60.01194954507305</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F34" t="n">
-        <v>61.76140096484032</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G34" t="n">
-        <v>72.58023888723245</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H34" t="n">
-        <v>59.9324910538045</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I34" t="n">
-        <v>37.77220663497643</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>28.67070499943235</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>106.7966485049597</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T34" t="n">
-        <v>139.3705868391318</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U34" t="n">
-        <v>188.5931293662016</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V34" t="n">
-        <v>169.3282772530675</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W34" t="n">
-        <v>186.5058235738177</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X34" t="n">
-        <v>137.7482445205302</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y34" t="n">
-        <v>126.8896660972066</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>302.4985237799664</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
-        <v>295.2524720077822</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>287.5954430211825</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>304.5664151603044</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>318.7342196110055</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>315.0398534825604</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
-        <v>81.61838887131783</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>122.8352329541626</v>
       </c>
       <c r="V35" t="n">
-        <v>244.6944667292003</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>273.2977702070789</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>291.5668045419573</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>298.5345275142884</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.36466403007181</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>74.51179228035421</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>60.08550749219394</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>60.01194954507305</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>61.76140096484032</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>72.58023888723245</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>59.9324910538045</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>37.77220663497643</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>28.67070499943235</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>106.7966485049597</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
-        <v>139.3705868391318</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5931293662016</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>169.3282772530675</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>186.5058235738177</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
-        <v>137.7482445205302</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>126.8896660972066</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>302.4985237799664</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>295.2524720077822</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>15.36279060924307</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>304.5664151603044</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>318.7342196110055</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>315.0398534825604</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>226.8509454548578</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>42.96247126414336</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>70.85714503404348</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>127.274321941861</v>
+        <v>90.90562710059288</v>
       </c>
       <c r="U38" t="n">
-        <v>159.2039277954309</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>244.6944667292003</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>291.5668045419573</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
-        <v>298.5345275142884</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.36466403007181</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>74.51179228035421</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>60.08550749219394</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>60.01194954507305</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>61.76140096484032</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>72.58023888723245</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>59.9324910538045</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>37.77220663497643</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>28.67070499943235</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>106.7966485049597</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>139.3705868391318</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5931293662016</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>169.3282772530675</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
-        <v>186.5058235738177</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>137.7482445205302</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>126.8896660972066</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>358.8768136769496</v>
+        <v>322.2802739911202</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>315.034222218936</v>
       </c>
       <c r="D41" t="n">
-        <v>343.9737329181656</v>
+        <v>307.3771932323363</v>
       </c>
       <c r="E41" t="n">
-        <v>360.9447050572876</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>375.1125095079887</v>
+        <v>338.5159698221593</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>154.1846841900552</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>62.74422147529711</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.23178334695123</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>183.6526118388442</v>
+        <v>147.0560721530148</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>178.9856780065847</v>
       </c>
       <c r="V41" t="n">
-        <v>301.0727566261835</v>
+        <v>264.4762169403541</v>
       </c>
       <c r="W41" t="n">
-        <v>329.6760601040621</v>
+        <v>293.0795204182327</v>
       </c>
       <c r="X41" t="n">
-        <v>347.9450944389404</v>
+        <v>311.348554753111</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.9128174112716</v>
+        <v>318.3162777254422</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>145.742953927055</v>
+        <v>109.1464142412256</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>94.29354249150796</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>79.86725770334769</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>79.7936997562268</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>92.3619890983862</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>79.71424126495825</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>57.55395684613018</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>48.45245521058609</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>42.33255281667901</v>
       </c>
       <c r="T43" t="n">
-        <v>146.879459545885</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>244.9714192631848</v>
+        <v>208.3748795773554</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>189.1100274642213</v>
       </c>
       <c r="W43" t="n">
-        <v>242.8841134708009</v>
+        <v>206.2875737849714</v>
       </c>
       <c r="X43" t="n">
-        <v>194.1265344175134</v>
+        <v>157.529994731684</v>
       </c>
       <c r="Y43" t="n">
-        <v>183.2679559941898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>322.2802739911202</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>315.034222218936</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>338.5159698221593</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>334.8216036937141</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>246.6326956660115</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>62.7442214752971</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>90.63889524519722</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>178.9856780065846</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>201.0009719108376</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>293.0795204182327</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>311.348554753111</v>
       </c>
       <c r="Y44" t="n">
-        <v>167.9683453503095</v>
+        <v>318.3162777254421</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>109.1464142412255</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>94.29354249150795</v>
       </c>
       <c r="D46" t="n">
-        <v>117.3058019757068</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>81.54315117599405</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>75.20838896665938</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>48.45245521058608</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>126.5783987161134</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>159.1523370502855</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>208.3748795773553</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>189.1100274642213</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>206.2875737849714</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>146.6714163083603</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1005.140499863032</v>
+        <v>632.5971671495322</v>
       </c>
       <c r="C2" t="n">
-        <v>1005.140499863032</v>
+        <v>632.5971671495322</v>
       </c>
       <c r="D2" t="n">
-        <v>1005.140499863032</v>
+        <v>632.5971671495322</v>
       </c>
       <c r="E2" t="n">
-        <v>1005.140499863032</v>
+        <v>230.0136422660767</v>
       </c>
       <c r="F2" t="n">
-        <v>588.2460613930097</v>
+        <v>217.1596078364585</v>
       </c>
       <c r="G2" t="n">
-        <v>175.0833058810128</v>
+        <v>208.0372563648658</v>
       </c>
       <c r="H2" t="n">
-        <v>175.0833058810128</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I2" t="n">
-        <v>36.74618897347759</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>181.3959618823057</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>540.3783179097675</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>540.3783179097675</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>540.3783179097675</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N2" t="n">
-        <v>864.2367955090808</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
-        <v>1304.276396401409</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
-        <v>1652.463888532931</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>1837.30944867388</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>1837.30944867388</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>1670.79589361493</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>1670.79589361493</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U2" t="n">
-        <v>1670.79589361493</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V2" t="n">
-        <v>1670.79589361493</v>
+        <v>1819.035227007271</v>
       </c>
       <c r="W2" t="n">
-        <v>1299.796858583218</v>
+        <v>1819.035227007271</v>
       </c>
       <c r="X2" t="n">
-        <v>1005.140499863032</v>
+        <v>1429.582621940328</v>
       </c>
       <c r="Y2" t="n">
-        <v>1005.140499863032</v>
+        <v>1033.091912860929</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>685.4579416736008</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C3" t="n">
-        <v>685.4579416736008</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D3" t="n">
-        <v>555.3689742950811</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E3" t="n">
-        <v>418.9224834059688</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F3" t="n">
-        <v>294.4906772891006</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G3" t="n">
-        <v>174.4308593609651</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>86.133442961566</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I3" t="n">
-        <v>36.74618897347759</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
-        <v>149.861171193205</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K3" t="n">
-        <v>469.6003172554314</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L3" t="n">
-        <v>924.3344058022166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="M3" t="n">
-        <v>1197.322988402592</v>
+        <v>632.8109751081457</v>
       </c>
       <c r="N3" t="n">
-        <v>1197.322988402592</v>
+        <v>1218.308980114748</v>
       </c>
       <c r="O3" t="n">
-        <v>1197.322988402592</v>
+        <v>1734.829262705729</v>
       </c>
       <c r="P3" t="n">
-        <v>1602.944357118989</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>1837.30944867388</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>1813.392405571944</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>1678.461728471813</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>1501.477916670721</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1291.414773349363</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
-        <v>1291.414773349363</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
-        <v>1061.29752748265</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
-        <v>871.9904498326619</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>692.6762329081691</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>548.5215023196693</v>
+        <v>303.7011596858081</v>
       </c>
       <c r="C4" t="n">
-        <v>378.3163843856584</v>
+        <v>303.7011596858081</v>
       </c>
       <c r="D4" t="n">
-        <v>222.6832712881732</v>
+        <v>303.7011596858081</v>
       </c>
       <c r="E4" t="n">
-        <v>67.12445914737565</v>
+        <v>303.7011596858081</v>
       </c>
       <c r="F4" t="n">
-        <v>67.12445914737565</v>
+        <v>303.7011596858081</v>
       </c>
       <c r="G4" t="n">
-        <v>67.12445914737565</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="H4" t="n">
-        <v>67.12445914737565</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I4" t="n">
-        <v>67.12445914737565</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J4" t="n">
-        <v>36.74618897347759</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
-        <v>118.5812300834195</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>282.7088699572192</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
-        <v>469.0004482954832</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N4" t="n">
-        <v>652.1900823266924</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O4" t="n">
-        <v>814.8948493684004</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P4" t="n">
-        <v>934.7710151449789</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q4" t="n">
-        <v>938.1932115150299</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>936.5456048284211</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>733.7295210109705</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T4" t="n">
-        <v>733.7295210109705</v>
+        <v>589.1399514439072</v>
       </c>
       <c r="U4" t="n">
-        <v>733.7295210109705</v>
+        <v>303.7011596858081</v>
       </c>
       <c r="V4" t="n">
-        <v>733.7295210109705</v>
+        <v>303.7011596858081</v>
       </c>
       <c r="W4" t="n">
-        <v>733.7295210109705</v>
+        <v>303.7011596858081</v>
       </c>
       <c r="X4" t="n">
-        <v>733.7295210109705</v>
+        <v>303.7011596858081</v>
       </c>
       <c r="Y4" t="n">
-        <v>733.7295210109705</v>
+        <v>303.7011596858081</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1579.705190930838</v>
+        <v>1230.276376124636</v>
       </c>
       <c r="C5" t="n">
-        <v>1418.290805874553</v>
+        <v>1230.276376124636</v>
       </c>
       <c r="D5" t="n">
-        <v>1418.290805874553</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="E5" t="n">
-        <v>1015.707280991098</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F5" t="n">
-        <v>598.8128425210757</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G5" t="n">
-        <v>185.6500870090788</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
         <v>47.31297010154361</v>
@@ -4568,16 +4570,16 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>550.9450990378335</v>
+        <v>265.4829774041385</v>
       </c>
       <c r="L5" t="n">
-        <v>550.9450990378335</v>
+        <v>758.8032691226673</v>
       </c>
       <c r="M5" t="n">
-        <v>864.7645682749193</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N5" t="n">
-        <v>1392.575851912381</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O5" t="n">
         <v>1832.61545280471</v>
@@ -4592,25 +4594,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.64850507718</v>
+        <v>1601.275411156348</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.64850507718</v>
+        <v>1230.276376124636</v>
       </c>
       <c r="X5" t="n">
-        <v>1976.195900010237</v>
+        <v>1230.276376124636</v>
       </c>
       <c r="Y5" t="n">
-        <v>1579.705190930838</v>
+        <v>1230.276376124636</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K6" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L6" t="n">
-        <v>554.6660347926879</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.16403979929</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N6" t="n">
-        <v>1725.662044805892</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.662044805892</v>
+        <v>1952.636489659666</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.28341352229</v>
+        <v>2358.257858376064</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.64850507718</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>336.040508561951</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C7" t="n">
-        <v>336.040508561951</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D7" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E7" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F7" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G7" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H7" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J7" t="n">
         <v>47.31297010154361</v>
@@ -4750,25 +4752,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>745.9439088256454</v>
+        <v>751.9906653292753</v>
       </c>
       <c r="V7" t="n">
-        <v>559.1525697453077</v>
+        <v>486.0113201500996</v>
       </c>
       <c r="W7" t="n">
-        <v>559.1525697453077</v>
+        <v>486.0113201500996</v>
       </c>
       <c r="X7" t="n">
-        <v>559.1525697453077</v>
+        <v>486.0113201500996</v>
       </c>
       <c r="Y7" t="n">
-        <v>336.040508561951</v>
+        <v>262.8992589667429</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1427.641169275121</v>
+        <v>1328.925428881273</v>
       </c>
       <c r="C8" t="n">
-        <v>1427.641169275121</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="D8" t="n">
-        <v>1427.641169275121</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="E8" t="n">
-        <v>1025.057644391666</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="F8" t="n">
-        <v>608.1632059216437</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G8" t="n">
-        <v>195.0004504096468</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1044.265390756362</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1572.076674393824</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
-        <v>2012.116275286153</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.303767417675</v>
+        <v>2321.615293661099</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2199.134950018231</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>2199.134950018231</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="V8" t="n">
-        <v>2199.134950018231</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="W8" t="n">
-        <v>1828.135914986518</v>
+        <v>1700.903826765588</v>
       </c>
       <c r="X8" t="n">
-        <v>1828.135914986518</v>
+        <v>1328.925428881273</v>
       </c>
       <c r="Y8" t="n">
-        <v>1828.135914986518</v>
+        <v>1328.925428881273</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1701.875066013061</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O9" t="n">
-        <v>2218.395348604042</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4926,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>233.2500524162392</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>233.2500524162392</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>233.2500524162392</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4993,19 +4995,19 @@
         <v>622.0429194582225</v>
       </c>
       <c r="U10" t="n">
-        <v>622.0429194582225</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="V10" t="n">
-        <v>418.4580711075404</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="W10" t="n">
-        <v>418.4580711075404</v>
+        <v>53.27372563130109</v>
       </c>
       <c r="X10" t="n">
-        <v>418.4580711075404</v>
+        <v>53.27372563130109</v>
       </c>
       <c r="Y10" t="n">
-        <v>418.4580711075404</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1549.258117997884</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C11" t="n">
-        <v>1251.023297788003</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>960.522850291859</v>
+        <v>731.4357765463913</v>
       </c>
       <c r="E11" t="n">
-        <v>652.8800066955919</v>
+        <v>423.7929329501241</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955919</v>
+        <v>423.7929329501241</v>
       </c>
       <c r="G11" t="n">
         <v>334.6579324707834</v>
@@ -5066,25 +5068,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3102.658536901271</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2974.098615747876</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2974.098615747876</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2726.932487738582</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2450.874133994058</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2156.362210214303</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y11" t="n">
-        <v>1854.812182422093</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5120,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N12" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551001</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082777</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979808</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443716</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
         <v>160.810741531167</v>
@@ -5203,13 +5205,13 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M13" t="n">
         <v>836.805091346977</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O13" t="n">
         <v>1368.802215879041</v>
@@ -5230,19 +5232,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W13" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553814</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1827.815439560371</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C14" t="n">
-        <v>1529.58061935049</v>
+        <v>1021.936224042536</v>
       </c>
       <c r="D14" t="n">
-        <v>1239.080171854346</v>
+        <v>731.4357765463916</v>
       </c>
       <c r="E14" t="n">
-        <v>931.4373282580789</v>
+        <v>652.8800066955918</v>
       </c>
       <c r="F14" t="n">
-        <v>609.483571075245</v>
+        <v>652.8800066955918</v>
       </c>
       <c r="G14" t="n">
-        <v>291.2614968504365</v>
+        <v>334.6579324707833</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5312,16 +5314,16 @@
         <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2699.935744876861</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W14" t="n">
-        <v>2423.877391132336</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2129.365467352582</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y14" t="n">
-        <v>1827.815439560371</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5358,13 +5360,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>174.7633905351325</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N15" t="n">
         <v>1458.313011372373</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551006</v>
+        <v>493.0843669551002</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082782</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979813</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443721</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445333</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5443,16 +5445,16 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469768</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5467,19 +5469,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553819</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592136</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1827.815439560371</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1529.58061935049</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1239.080171854346</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>931.4373282580789</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>609.483571075245</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>291.2614968504365</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>62.11912770411553</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,25 +5542,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3105.956385205776</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2977.396464052381</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2816.584415774169</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2569.418287764875</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2293.359934020351</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2293.359934020351</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>2133.36950398458</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="K18" t="n">
-        <v>175.2341099238429</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L18" t="n">
-        <v>658.8001958221562</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M18" t="n">
-        <v>1286.571845448837</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>493.0843669551004</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>417.8199303082779</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>357.127498497981</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>296.5093676443719</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>234.1241141445331</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>160.810741531167</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>100.2728717798493</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>125.3967468362513</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>300.2831496757668</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>557.4621512791398</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>836.8050913469772</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>1113.04608710776</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>1368.802215879041</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P19" t="n">
-        <v>1581.729743385193</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1678.203301484817</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1649.242993404582</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1541.36759087432</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>1400.589220329742</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>1210.091109858832</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>1039.052445966844</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>850.6627251852103</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>711.5230842553817</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>583.3517043592134</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1480.983092530629</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1239.080171854346</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1239.080171854346</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>931.4373282580789</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>609.483571075245</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G20" t="n">
-        <v>291.2614968504365</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,25 +5779,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3034.383511434015</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
-        <v>2905.82359028062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2905.82359028062</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2658.657462271327</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2382.599108526803</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2088.087184747048</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1786.537156954837</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L21" t="n">
-        <v>494.9732559860694</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M21" t="n">
-        <v>1122.744905612751</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.468202408463</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>493.0843669551004</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>417.8199303082779</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>357.127498497981</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>296.5093676443719</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>234.1241141445331</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>160.810741531167</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>100.2728717798493</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>125.3967468362513</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>300.2831496757668</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>557.4621512791398</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>836.8050913469772</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>1113.04608710776</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>1368.802215879041</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1581.729743385193</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1678.203301484817</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
-        <v>1649.242993404582</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1541.36759087432</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>1400.589220329742</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>1210.091109858832</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>1039.052445966844</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>850.6627251852103</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>711.5230842553817</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>583.3517043592134</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1320.171044252416</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1320.171044252416</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1029.670596756272</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>974.8337638784258</v>
+        <v>827.8895422975455</v>
       </c>
       <c r="F23" t="n">
-        <v>652.8800066955919</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>334.6579324707834</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>105.5155633244624</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -5990,7 +5992,7 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6014,25 +6016,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3034.383511434015</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
-        <v>2905.82359028062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2745.011542002408</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2497.845413993115</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2221.78706024859</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>1927.275136468836</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1625.725108676625</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6072,19 +6074,19 @@
         <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M24" t="n">
-        <v>1493.196009291336</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N24" t="n">
-        <v>1493.196009291336</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>493.0843669551004</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>417.8199303082779</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>357.127498497981</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>296.5093676443719</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>234.1241141445331</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>160.810741531167</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>100.2728717798493</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>125.3967468362513</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K25" t="n">
-        <v>300.2831496757665</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L25" t="n">
-        <v>557.4621512791396</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M25" t="n">
-        <v>836.805091346977</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N25" t="n">
-        <v>1113.046087107759</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O25" t="n">
-        <v>1368.802215879041</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P25" t="n">
-        <v>1581.729743385192</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q25" t="n">
-        <v>1678.203301484817</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1649.242993404582</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1541.36759087432</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>1400.589220329742</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>1210.091109858832</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>1039.052445966844</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>850.6627251852103</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>711.5230842553817</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>583.3517043592134</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1791.526513871319</v>
+        <v>1871.211875180717</v>
       </c>
       <c r="C26" t="n">
-        <v>1455.29877994696</v>
+        <v>1572.977054970836</v>
       </c>
       <c r="D26" t="n">
-        <v>1126.805418736338</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E26" t="n">
-        <v>1126.805418736338</v>
+        <v>974.8337638784257</v>
       </c>
       <c r="F26" t="n">
-        <v>766.8587478390261</v>
+        <v>652.8800066955918</v>
       </c>
       <c r="G26" t="n">
-        <v>410.6437598997395</v>
+        <v>334.6579324707833</v>
       </c>
       <c r="H26" t="n">
-        <v>143.5084770389404</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J26" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K26" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L26" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M26" t="n">
         <v>1605.072448403515</v>
@@ -6251,25 +6253,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>2996.390597719537</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T26" t="n">
-        <v>2996.390597719537</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="U26" t="n">
-        <v>2996.390597719537</v>
+        <v>2873.571463155803</v>
       </c>
       <c r="V26" t="n">
-        <v>2996.390597719537</v>
+        <v>2626.40533514651</v>
       </c>
       <c r="W26" t="n">
-        <v>2807.121271010928</v>
+        <v>2350.346981401985</v>
       </c>
       <c r="X26" t="n">
-        <v>2474.616433516695</v>
+        <v>2055.835057622231</v>
       </c>
       <c r="Y26" t="n">
-        <v>2135.073492010006</v>
+        <v>2055.835057622231</v>
       </c>
     </row>
     <row r="27">
@@ -6309,16 +6311,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L27" t="n">
-        <v>545.6852136024288</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M27" t="n">
-        <v>1173.45686322911</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N27" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O27" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P27" t="n">
         <v>2380.454662679751</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>160.6499111699113</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C28" t="n">
-        <v>160.6499111699113</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D28" t="n">
-        <v>160.6499111699113</v>
+        <v>357.1274984979808</v>
       </c>
       <c r="E28" t="n">
-        <v>160.6499111699113</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F28" t="n">
-        <v>160.6499111699113</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G28" t="n">
-        <v>160.6499111699113</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H28" t="n">
-        <v>62.11912770411553</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I28" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>88.15989210469138</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K28" t="n">
-        <v>225.8094402126466</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L28" t="n">
-        <v>445.7515870844597</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M28" t="n">
-        <v>687.8576724207371</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N28" t="n">
-        <v>926.8618134499596</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O28" t="n">
-        <v>1145.381087489681</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P28" t="n">
-        <v>1321.071760264273</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q28" t="n">
-        <v>1380.308463632337</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R28" t="n">
-        <v>1313.355241837624</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S28" t="n">
-        <v>1313.355241837624</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T28" t="n">
-        <v>1134.583957578569</v>
+        <v>1400.589220329743</v>
       </c>
       <c r="U28" t="n">
-        <v>906.0929333931799</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V28" t="n">
-        <v>697.0613557867144</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W28" t="n">
-        <v>470.6787212906023</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X28" t="n">
-        <v>293.5461666462957</v>
+        <v>711.5230842553813</v>
       </c>
       <c r="Y28" t="n">
-        <v>160.6499111699113</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1827.815439560371</v>
+        <v>1549.258117997884</v>
       </c>
       <c r="C29" t="n">
-        <v>1529.58061935049</v>
+        <v>1251.023297788003</v>
       </c>
       <c r="D29" t="n">
-        <v>1239.080171854346</v>
+        <v>960.522850291859</v>
       </c>
       <c r="E29" t="n">
-        <v>931.4373282580789</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="F29" t="n">
-        <v>609.483571075245</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G29" t="n">
-        <v>291.2614968504365</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411553</v>
@@ -6494,19 +6496,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U29" t="n">
-        <v>3105.956385205776</v>
+        <v>2974.098615747876</v>
       </c>
       <c r="V29" t="n">
-        <v>3005.489809301069</v>
+        <v>2726.932487738582</v>
       </c>
       <c r="W29" t="n">
-        <v>2729.431455556545</v>
+        <v>2450.874133994058</v>
       </c>
       <c r="X29" t="n">
-        <v>2434.91953177679</v>
+        <v>2156.362210214303</v>
       </c>
       <c r="Y29" t="n">
-        <v>2133.36950398458</v>
+        <v>1854.812182422093</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6545,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L30" t="n">
-        <v>174.7633905351325</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M30" t="n">
-        <v>802.5350401618138</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N30" t="n">
-        <v>1458.313011372373</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O30" t="n">
-        <v>1974.833293963354</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="P30" t="n">
         <v>2380.454662679751</v>
@@ -6598,16 +6600,16 @@
         <v>493.0843669551004</v>
       </c>
       <c r="C31" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D31" t="n">
-        <v>357.1274984979811</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E31" t="n">
         <v>296.5093676443719</v>
       </c>
       <c r="F31" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G31" t="n">
         <v>160.810741531167</v>
@@ -6625,16 +6627,16 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L31" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M31" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N31" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O31" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P31" t="n">
         <v>1581.729743385192</v>
@@ -6652,10 +6654,10 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U31" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V31" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W31" t="n">
         <v>850.6627251852102</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1827.815439560371</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C32" t="n">
-        <v>1529.58061935049</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D32" t="n">
-        <v>1239.080171854346</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E32" t="n">
-        <v>931.4373282580789</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F32" t="n">
-        <v>609.483571075245</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G32" t="n">
-        <v>291.2614968504365</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H32" t="n">
-        <v>62.11912770411553</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6725,25 +6727,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3105.956385205776</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T32" t="n">
-        <v>2977.396464052381</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U32" t="n">
-        <v>2951.105909518152</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V32" t="n">
-        <v>2703.939781508859</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W32" t="n">
-        <v>2427.881427764335</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X32" t="n">
-        <v>2133.36950398458</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y32" t="n">
-        <v>2133.36950398458</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6782,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411553</v>
+        <v>318.9689542635005</v>
       </c>
       <c r="L33" t="n">
-        <v>62.11912770411553</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M33" t="n">
-        <v>568.1699486069232</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N33" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O33" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P33" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>493.0843669551003</v>
+        <v>2243.686201918056</v>
       </c>
       <c r="C34" t="n">
-        <v>417.8199303082779</v>
+        <v>2205.157820666454</v>
       </c>
       <c r="D34" t="n">
-        <v>357.127498497981</v>
+        <v>2181.201444251377</v>
       </c>
       <c r="E34" t="n">
-        <v>296.5093676443718</v>
+        <v>2157.319368792988</v>
       </c>
       <c r="F34" t="n">
-        <v>234.1241141445331</v>
+        <v>2131.67017068837</v>
       </c>
       <c r="G34" t="n">
-        <v>160.810741531167</v>
+        <v>2095.092853470223</v>
       </c>
       <c r="H34" t="n">
-        <v>100.2728717798493</v>
+        <v>2071.291039114126</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411553</v>
+        <v>2069.873350433612</v>
       </c>
       <c r="J34" t="n">
-        <v>125.3967468362513</v>
+        <v>2069.873350433612</v>
       </c>
       <c r="K34" t="n">
-        <v>300.2831496757665</v>
+        <v>2151.708391543554</v>
       </c>
       <c r="L34" t="n">
-        <v>557.4621512791396</v>
+        <v>2315.836031417354</v>
       </c>
       <c r="M34" t="n">
-        <v>836.805091346977</v>
+        <v>2502.127609755618</v>
       </c>
       <c r="N34" t="n">
-        <v>1113.046087107759</v>
+        <v>2685.317243786827</v>
       </c>
       <c r="O34" t="n">
-        <v>1368.802215879041</v>
+        <v>2853.601653436718</v>
       </c>
       <c r="P34" t="n">
-        <v>1581.729743385192</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q34" t="n">
-        <v>1678.203301484817</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R34" t="n">
-        <v>1649.242993404582</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S34" t="n">
-        <v>1541.36759087432</v>
+        <v>3034.817038070734</v>
       </c>
       <c r="T34" t="n">
-        <v>1400.589220329742</v>
+        <v>2930.774722921377</v>
       </c>
       <c r="U34" t="n">
-        <v>1210.091109858831</v>
+        <v>2777.012667845686</v>
       </c>
       <c r="V34" t="n">
-        <v>1039.052445966844</v>
+        <v>2642.710059348919</v>
       </c>
       <c r="W34" t="n">
-        <v>850.6627251852101</v>
+        <v>2491.056393962505</v>
       </c>
       <c r="X34" t="n">
-        <v>711.5230842553816</v>
+        <v>2388.652808427897</v>
       </c>
       <c r="Y34" t="n">
-        <v>583.3517043592133</v>
+        <v>2297.217483926949</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1681.115887455785</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1382.881067245904</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1092.38061974976</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>784.7377761534931</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>462.7840189706592</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>144.5619447458507</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>62.11912770411553</v>
+        <v>68.77950792924221</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
@@ -6953,7 +6955,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6962,25 +6964,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3105.956385205776</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>3105.956385205776</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
-        <v>3105.956385205776</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2858.790257196483</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2582.731903451959</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2288.219979672204</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1986.669951879994</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L36" t="n">
         <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>493.0843669551003</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>417.8199303082779</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>357.127498497981</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>296.5093676443718</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>234.1241141445331</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>160.810741531167</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H37" t="n">
-        <v>100.2728717798493</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J37" t="n">
-        <v>125.3967468362513</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K37" t="n">
-        <v>300.2831496757665</v>
+        <v>149.5338114222408</v>
       </c>
       <c r="L37" t="n">
-        <v>557.4621512791396</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M37" t="n">
-        <v>836.805091346977</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N37" t="n">
-        <v>1113.046087107759</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O37" t="n">
-        <v>1368.802215879041</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P37" t="n">
-        <v>1581.729743385192</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1678.203301484817</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1649.242993404582</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1541.36759087432</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>1400.589220329742</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>1210.091109858831</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>1039.052445966844</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W37" t="n">
-        <v>850.6627251852101</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X37" t="n">
-        <v>711.5230842553816</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y37" t="n">
-        <v>583.3517043592133</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1596.229397996941</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1297.99457778706</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1282.476607474693</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>974.8337638784258</v>
+        <v>827.8895422975451</v>
       </c>
       <c r="F38" t="n">
-        <v>652.8800066955919</v>
+        <v>542.6718405099313</v>
       </c>
       <c r="G38" t="n">
-        <v>334.6579324707834</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>105.5155633244624</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,25 +7201,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3034.383511434015</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2905.82359028062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2745.011542002408</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2497.845413993115</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2497.845413993115</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2203.33349021336</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1901.783462421149</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>493.0843669551003</v>
+        <v>2243.686201918055</v>
       </c>
       <c r="C40" t="n">
-        <v>417.8199303082779</v>
+        <v>2205.157820666453</v>
       </c>
       <c r="D40" t="n">
-        <v>357.127498497981</v>
+        <v>2181.201444251376</v>
       </c>
       <c r="E40" t="n">
-        <v>296.5093676443718</v>
+        <v>2157.319368792987</v>
       </c>
       <c r="F40" t="n">
-        <v>234.1241141445331</v>
+        <v>2131.670170688369</v>
       </c>
       <c r="G40" t="n">
-        <v>160.810741531167</v>
+        <v>2095.092853470223</v>
       </c>
       <c r="H40" t="n">
-        <v>100.2728717798493</v>
+        <v>2071.291039114125</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>2069.873350433611</v>
       </c>
       <c r="J40" t="n">
-        <v>125.3967468362513</v>
+        <v>2069.873350433611</v>
       </c>
       <c r="K40" t="n">
-        <v>300.2831496757665</v>
+        <v>2280.764761165982</v>
       </c>
       <c r="L40" t="n">
-        <v>557.4621512791396</v>
+        <v>2444.892401039781</v>
       </c>
       <c r="M40" t="n">
-        <v>836.805091346977</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N40" t="n">
-        <v>1113.046087107759</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O40" t="n">
-        <v>1368.802215879041</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P40" t="n">
-        <v>1581.729743385192</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q40" t="n">
-        <v>1678.203301484817</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R40" t="n">
-        <v>1649.242993404582</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S40" t="n">
-        <v>1541.36759087432</v>
+        <v>3034.817038070734</v>
       </c>
       <c r="T40" t="n">
-        <v>1400.589220329742</v>
+        <v>2930.774722921377</v>
       </c>
       <c r="U40" t="n">
-        <v>1210.091109858831</v>
+        <v>2777.012667845686</v>
       </c>
       <c r="V40" t="n">
-        <v>1039.052445966844</v>
+        <v>2642.710059348919</v>
       </c>
       <c r="W40" t="n">
-        <v>850.6627251852101</v>
+        <v>2491.056393962505</v>
       </c>
       <c r="X40" t="n">
-        <v>711.5230842553816</v>
+        <v>2388.652808427897</v>
       </c>
       <c r="Y40" t="n">
-        <v>583.3517043592133</v>
+        <v>2297.217483926948</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1153.059478697491</v>
+        <v>1251.87295693521</v>
       </c>
       <c r="C41" t="n">
-        <v>1153.059478697491</v>
+        <v>933.6565708554771</v>
       </c>
       <c r="D41" t="n">
-        <v>805.6112636286371</v>
+        <v>623.1745574894808</v>
       </c>
       <c r="E41" t="n">
-        <v>441.0206524596597</v>
+        <v>623.1745574894808</v>
       </c>
       <c r="F41" t="n">
-        <v>62.11912770411553</v>
+        <v>281.2392344367946</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411553</v>
+        <v>281.2392344367946</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>125.4971291943146</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7427,7 +7429,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q41" t="n">
         <v>3105.956385205776</v>
@@ -7436,25 +7438,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3048.146503037139</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2862.638814311033</v>
+        <v>2957.414898182529</v>
       </c>
       <c r="U41" t="n">
-        <v>2862.638814311033</v>
+        <v>2776.621284034463</v>
       </c>
       <c r="V41" t="n">
-        <v>2558.52491872903</v>
+        <v>2509.473590155318</v>
       </c>
       <c r="W41" t="n">
-        <v>2225.518797411796</v>
+        <v>2213.433670540941</v>
       </c>
       <c r="X41" t="n">
-        <v>1874.059106059331</v>
+        <v>1898.940180891334</v>
       </c>
       <c r="Y41" t="n">
-        <v>1515.56131069441</v>
+        <v>1577.408587229271</v>
       </c>
     </row>
     <row r="42">
@@ -7485,19 +7487,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>865.4243596646552</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N42" t="n">
         <v>1458.313011372373</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.11912770411553</v>
+        <v>550.5885086743752</v>
       </c>
       <c r="C43" t="n">
-        <v>62.11912770411553</v>
+        <v>455.3425061577005</v>
       </c>
       <c r="D43" t="n">
-        <v>62.11912770411553</v>
+        <v>374.6685084775513</v>
       </c>
       <c r="E43" t="n">
-        <v>62.11912770411553</v>
+        <v>294.0688117540899</v>
       </c>
       <c r="F43" t="n">
-        <v>62.11912770411553</v>
+        <v>294.0688117540899</v>
       </c>
       <c r="G43" t="n">
-        <v>62.11912770411553</v>
+        <v>200.7738732708715</v>
       </c>
       <c r="H43" t="n">
-        <v>62.11912770411553</v>
+        <v>120.2544376497016</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J43" t="n">
-        <v>69.582239838238</v>
+        <v>105.8128141272091</v>
       </c>
       <c r="K43" t="n">
-        <v>188.6541356797398</v>
+        <v>261.1152842576821</v>
       </c>
       <c r="L43" t="n">
-        <v>390.0186302850996</v>
+        <v>498.710353152013</v>
       </c>
       <c r="M43" t="n">
-        <v>613.5470633549236</v>
+        <v>758.4693605108082</v>
       </c>
       <c r="N43" t="n">
-        <v>833.9735521176927</v>
+        <v>1015.126423562548</v>
       </c>
       <c r="O43" t="n">
-        <v>1033.915173890961</v>
+        <v>1251.298619624788</v>
       </c>
       <c r="P43" t="n">
-        <v>1191.028194399099</v>
+        <v>1444.642214421897</v>
       </c>
       <c r="Q43" t="n">
-        <v>1231.68724550071</v>
+        <v>1521.531839812479</v>
       </c>
       <c r="R43" t="n">
-        <v>1231.68724550071</v>
+        <v>1472.589965862392</v>
       </c>
       <c r="S43" t="n">
-        <v>1231.68724550071</v>
+        <v>1429.82981150211</v>
       </c>
       <c r="T43" t="n">
-        <v>1083.324155050321</v>
+        <v>1429.82981150211</v>
       </c>
       <c r="U43" t="n">
-        <v>835.8782770067005</v>
+        <v>1219.350135161347</v>
       </c>
       <c r="V43" t="n">
-        <v>835.8782770067005</v>
+        <v>1028.329905399508</v>
       </c>
       <c r="W43" t="n">
-        <v>590.5407886523562</v>
+        <v>819.9586187480213</v>
       </c>
       <c r="X43" t="n">
-        <v>394.4533801498173</v>
+        <v>660.8374119483404</v>
       </c>
       <c r="Y43" t="n">
-        <v>209.3342326809388</v>
+        <v>660.8374119483404</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2535.796644191037</v>
+        <v>1372.976413437568</v>
       </c>
       <c r="C44" t="n">
-        <v>2142.621142693967</v>
+        <v>1054.760027357835</v>
       </c>
       <c r="D44" t="n">
-        <v>1757.180013910635</v>
+        <v>1054.760027357835</v>
       </c>
       <c r="E44" t="n">
-        <v>1354.596489027179</v>
+        <v>1054.760027357835</v>
       </c>
       <c r="F44" t="n">
-        <v>937.702050557157</v>
+        <v>712.8247043051485</v>
       </c>
       <c r="G44" t="n">
-        <v>524.5392950451601</v>
+        <v>374.6210642104879</v>
       </c>
       <c r="H44" t="n">
-        <v>200.4562446116507</v>
+        <v>125.4971291943146</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K44" t="n">
         <v>565.7512566404055</v>
@@ -7664,7 +7666,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q44" t="n">
         <v>3105.956385205776</v>
@@ -7673,25 +7675,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3014.401945564162</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>3014.401945564162</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>2833.608331416097</v>
       </c>
       <c r="V44" t="n">
-        <v>3105.956385205776</v>
+        <v>2630.577046657675</v>
       </c>
       <c r="W44" t="n">
-        <v>3105.956385205776</v>
+        <v>2334.537127043298</v>
       </c>
       <c r="X44" t="n">
-        <v>3105.956385205776</v>
+        <v>2020.043637393691</v>
       </c>
       <c r="Y44" t="n">
-        <v>2936.291389902433</v>
+        <v>1698.512043731629</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M45" t="n">
-        <v>1084.690231197904</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.468202408463</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>506.3737668452943</v>
+        <v>315.7000192537735</v>
       </c>
       <c r="C46" t="n">
-        <v>336.1686489112835</v>
+        <v>220.4540167370988</v>
       </c>
       <c r="D46" t="n">
-        <v>217.677939844913</v>
+        <v>220.4540167370988</v>
       </c>
       <c r="E46" t="n">
-        <v>62.11912770411553</v>
+        <v>220.4540167370988</v>
       </c>
       <c r="F46" t="n">
-        <v>62.11912770411553</v>
+        <v>138.0871973674078</v>
       </c>
       <c r="G46" t="n">
-        <v>62.11912770411553</v>
+        <v>138.0871973674078</v>
       </c>
       <c r="H46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>105.8128141272091</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>261.1152842576821</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>498.710353152013</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>758.4693605108082</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>1015.126423562549</v>
       </c>
       <c r="O46" t="n">
-        <v>840.2677880990384</v>
+        <v>1251.298619624788</v>
       </c>
       <c r="P46" t="n">
-        <v>960.1439538756169</v>
+        <v>1444.642214421898</v>
       </c>
       <c r="Q46" t="n">
-        <v>963.5661502456679</v>
+        <v>1521.53183981248</v>
       </c>
       <c r="R46" t="n">
-        <v>963.5661502456679</v>
+        <v>1472.589965862393</v>
       </c>
       <c r="S46" t="n">
-        <v>963.5661502456679</v>
+        <v>1344.732997462278</v>
       </c>
       <c r="T46" t="n">
-        <v>963.5661502456679</v>
+        <v>1183.973061047848</v>
       </c>
       <c r="U46" t="n">
-        <v>963.5661502456679</v>
+        <v>973.4933847070852</v>
       </c>
       <c r="V46" t="n">
-        <v>963.5661502456679</v>
+        <v>782.4731549452455</v>
       </c>
       <c r="W46" t="n">
-        <v>963.5661502456679</v>
+        <v>574.1018682937593</v>
       </c>
       <c r="X46" t="n">
-        <v>729.485828028651</v>
+        <v>574.1018682937593</v>
       </c>
       <c r="Y46" t="n">
-        <v>506.3737668452943</v>
+        <v>425.9489225277387</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7984,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N2" t="n">
-        <v>476.2482666906259</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8055,25 +8057,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>549.3877090253882</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>368.1331650799938</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>487.5421030178609</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8216,19 +8218,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>217.3212662032442</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>466.7144144634705</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8292,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>165.3117977752924</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>98.45345285401153</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8459,19 +8461,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>149.8974233269835</v>
+        <v>188.9766897477674</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,10 +8531,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8541,13 +8543,13 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>388.298409013546</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>235.8239269133934</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8766,25 +8768,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>324.3235533562099</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>239.756709922914</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9006,16 +9008,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9240,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>105.1563108732267</v>
       </c>
       <c r="K18" t="n">
         <v>89.59693533333335</v>
@@ -9249,10 +9251,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>258.8480380294549</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9263,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>709.3350389104421</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9720,22 +9722,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>575.5973938481089</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>579.1898666384017</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9957,7 +9959,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
@@ -9969,7 +9971,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10191,10 +10193,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
@@ -10203,10 +10205,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>320.902235706038</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10428,13 +10430,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>349.0412045852374</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>603.5495674056833</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
@@ -10446,7 +10448,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10671,10 +10673,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N36" t="n">
-        <v>684.2495388215582</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,19 +10901,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.2265410010273</v>
       </c>
       <c r="K39" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>136.3731801151487</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10922,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11139,16 +11141,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N42" t="n">
-        <v>684.2495388215582</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11315,7 +11317,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11373,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>89.59693533333335</v>
@@ -11382,19 +11384,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>636.8366347720143</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>668.5665922884425</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23270,7 +23272,7 @@
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>226.7962030080131</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.59227521258275</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799665</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,10 +23503,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>226.7962030080126</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>200.0694275749087</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23795,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>140.1440017788746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23969,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>55.76858053826231</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>287.5954430211825</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24206,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>295.2524720077822</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>250.2779506112364</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>119.7215731628685</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>342.1793997376377</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24494,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>164.8873065191943</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>196.8169123727642</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>282.3074513065336</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>123.5341213428887</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>126.9776486074051</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>112.1247768576875</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>97.69849206952723</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>97.62493412240634</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>99.37438554217361</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>110.1932234645657</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>75.38519121230972</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>144.4096330822929</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.93535775291934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24689,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,10 +24736,10 @@
         <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954309</v>
+        <v>28.66473603210918</v>
       </c>
       <c r="V29" t="n">
-        <v>145.2325565835404</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>133.1762788065436</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>298.5345275142884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>145.2325565835399</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25394,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>272.2326524119394</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25451,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25628,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>351.6307619047654</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>324.3481653714582</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>371.4181433795436</v>
+        <v>334.8216036937141</v>
       </c>
       <c r="H41" t="n">
-        <v>283.2292353518409</v>
+        <v>92.44801147595635</v>
       </c>
       <c r="I41" t="n">
-        <v>99.34076116112654</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>70.00365158407543</v>
+        <v>90.63889524519723</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>215.5822176924141</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>130.8900821773374</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>116.4637973891771</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>116.3902394420562</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>118.1396908618235</v>
+        <v>81.54315117599407</v>
       </c>
       <c r="G43" t="n">
-        <v>128.9585287842156</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3107809507877</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>94.1504965319596</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>85.04899489641552</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>163.1749384019428</v>
+        <v>84.2458458994344</v>
       </c>
       <c r="T43" t="n">
-        <v>48.86941719022997</v>
+        <v>159.1523370502855</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>225.7065671500507</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>146.6714163083604</v>
       </c>
     </row>
     <row r="44">
@@ -25868,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>307.3771932323362</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>324.3481653714582</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25910,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>147.0560721530148</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>63.47524502951643</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.5574566382954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>36.77097999080361</v>
+        <v>79.86725770334768</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>79.79369975622679</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>92.36198909838619</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>4.505852298298848</v>
       </c>
       <c r="I46" t="n">
-        <v>131.7634811092929</v>
+        <v>57.55395684613016</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>157.529994731684</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>580399.7512288336</v>
+        <v>586780.3792675788</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>586780.3792675788</v>
+        <v>586780.3792675789</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>560045.5400183416</v>
+        <v>592613.7062486972</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>560045.5400183417</v>
+        <v>592613.7062486972</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>560045.5400183417</v>
+        <v>592613.7062486972</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>510222.0867605365</v>
+        <v>560045.5400183419</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>560045.5400183417</v>
+        <v>592613.7062486972</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>560045.5400183417</v>
+        <v>592613.7062486972</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>560045.5400183417</v>
+        <v>592613.7062486972</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>485364.9178076254</v>
+        <v>533841.9531964401</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>433285.1966891411</v>
+        <v>533841.9531964402</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>721328.7123734272</v>
+        <v>721328.7123734271</v>
       </c>
       <c r="C2" t="n">
-        <v>721328.712373427</v>
+        <v>721328.7123734269</v>
       </c>
       <c r="D2" t="n">
         <v>721328.7123734271</v>
       </c>
       <c r="E2" t="n">
+        <v>677904.4907329541</v>
+      </c>
+      <c r="F2" t="n">
+        <v>677904.4907329534</v>
+      </c>
+      <c r="G2" t="n">
+        <v>721328.7123734269</v>
+      </c>
+      <c r="H2" t="n">
+        <v>721328.7123734269</v>
+      </c>
+      <c r="I2" t="n">
+        <v>721328.7123734268</v>
+      </c>
+      <c r="J2" t="n">
+        <v>677904.4907329532</v>
+      </c>
+      <c r="K2" t="n">
         <v>677904.4907329525</v>
       </c>
-      <c r="F2" t="n">
-        <v>677904.4907329537</v>
-      </c>
-      <c r="G2" t="n">
-        <v>677904.4907329541</v>
-      </c>
-      <c r="H2" t="n">
-        <v>677904.4907329542</v>
-      </c>
-      <c r="I2" t="n">
-        <v>677904.4907329543</v>
-      </c>
-      <c r="J2" t="n">
-        <v>611473.2197225472</v>
-      </c>
-      <c r="K2" t="n">
-        <v>677904.4907329538</v>
-      </c>
       <c r="L2" t="n">
-        <v>677904.4907329542</v>
+        <v>721328.7123734271</v>
       </c>
       <c r="M2" t="n">
-        <v>677904.4907329541</v>
+        <v>721328.7123734266</v>
       </c>
       <c r="N2" t="n">
-        <v>677904.4907329541</v>
+        <v>721328.7123734266</v>
       </c>
       <c r="O2" t="n">
-        <v>578330.3277853315</v>
+        <v>642966.3749704182</v>
       </c>
       <c r="P2" t="n">
-        <v>508890.6996273522</v>
+        <v>642966.3749704182</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>153931.1635919841</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
-        <v>42672.71534820176</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>29094.95587301433</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>165282.8802647937</v>
+        <v>200837.4980720423</v>
       </c>
       <c r="K3" t="n">
-        <v>64084.77922896779</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>58189.9117460287</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989166</v>
+        <v>46121.92123989164</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1177.707664501526</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229347.39202943</v>
+        <v>200129.9340579131</v>
       </c>
       <c r="C4" t="n">
         <v>200129.9340579131</v>
@@ -26430,34 +26432,34 @@
         <v>148856.2633404648</v>
       </c>
       <c r="G4" t="n">
-        <v>148856.2633404648</v>
+        <v>173460.5839839468</v>
       </c>
       <c r="H4" t="n">
-        <v>148856.2633404648</v>
+        <v>173460.5839839468</v>
       </c>
       <c r="I4" t="n">
-        <v>148856.2633404648</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="J4" t="n">
-        <v>110846.6226181522</v>
+        <v>148856.2633404649</v>
       </c>
       <c r="K4" t="n">
         <v>148856.2633404648</v>
       </c>
       <c r="L4" t="n">
-        <v>148856.2633404648</v>
+        <v>173460.5839839468</v>
       </c>
       <c r="M4" t="n">
-        <v>148856.2633404648</v>
+        <v>173460.5839839468</v>
       </c>
       <c r="N4" t="n">
-        <v>148856.2633404648</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="O4" t="n">
-        <v>91883.42357241031</v>
+        <v>128865.9002561803</v>
       </c>
       <c r="P4" t="n">
-        <v>52165.99257608331</v>
+        <v>128865.9002561803</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61554.70361984297</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
         <v>69585.45727717315</v>
@@ -26482,34 +26484,34 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>55112.2895089091</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>55112.2895089091</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>55112.2895089091</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>51950.20350847727</v>
+        <v>55112.28950890911</v>
       </c>
       <c r="K5" t="n">
         <v>55112.2895089091</v>
       </c>
       <c r="L5" t="n">
-        <v>55112.2895089091</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="M5" t="n">
-        <v>55112.2895089091</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
-        <v>55112.2895089091</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>50372.62305555963</v>
+        <v>53449.25755040762</v>
       </c>
       <c r="P5" t="n">
-        <v>47210.5370551278</v>
+        <v>53449.25755040762</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>276495.4531321701</v>
+        <v>253417.5150465959</v>
       </c>
       <c r="C6" t="n">
-        <v>408940.6056901389</v>
+        <v>451613.3210383406</v>
       </c>
       <c r="D6" t="n">
-        <v>451613.3210383408</v>
+        <v>451613.3210383409</v>
       </c>
       <c r="E6" t="n">
-        <v>343483.0067458664</v>
+        <v>343483.0067458681</v>
       </c>
       <c r="F6" t="n">
-        <v>473935.9378835798</v>
+        <v>473935.9378835795</v>
       </c>
       <c r="G6" t="n">
-        <v>473935.9378835802</v>
+        <v>460603.4032009462</v>
       </c>
       <c r="H6" t="n">
-        <v>473935.9378835803</v>
+        <v>489698.3590739605</v>
       </c>
       <c r="I6" t="n">
-        <v>473935.9378835805</v>
+        <v>489698.3590739604</v>
       </c>
       <c r="J6" t="n">
-        <v>283393.513331124</v>
+        <v>273098.439811537</v>
       </c>
       <c r="K6" t="n">
-        <v>409851.1586546121</v>
+        <v>473935.9378835786</v>
       </c>
       <c r="L6" t="n">
-        <v>473935.9378835803</v>
+        <v>431508.447327932</v>
       </c>
       <c r="M6" t="n">
-        <v>427814.0166436885</v>
+        <v>443576.4378340686</v>
       </c>
       <c r="N6" t="n">
-        <v>473935.9378835802</v>
+        <v>489698.3590739603</v>
       </c>
       <c r="O6" t="n">
-        <v>436074.2811573616</v>
+        <v>459473.5094993287</v>
       </c>
       <c r="P6" t="n">
-        <v>409514.1699961411</v>
+        <v>460651.2171638302</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26697,37 @@
         <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G2" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M2" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
     </row>
     <row r="3">
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>459.3273621684699</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>591.4121262692951</v>
@@ -26820,16 +26822,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>36.36869484126791</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>56.37828989698318</v>
+        <v>57.62257963304855</v>
       </c>
       <c r="K2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>72.73738968253588</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.472134580626907</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>459.3273621684699</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>132.0847641008252</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>459.3273621684699</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
-        <v>132.0847641008252</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321489</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>36.36869484126791</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>56.37828989698318</v>
+        <v>57.62257963304855</v>
       </c>
       <c r="P2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>459.3273621684699</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
-        <v>132.0847641008252</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27385,16 +27387,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>298.6789222669451</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,16 +27438,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>93.84828388328975</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.132262774329</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27515,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>74.585174254579</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>121.0308488540061</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27616,13 +27618,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>229.4435052763768</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>353.0517875040109</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27792,10 +27794,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,16 +27824,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>87.78276979983551</v>
       </c>
       <c r="V7" t="n">
-        <v>78.39612603784968</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>174.6316144241521</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>17.29946511080124</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28017,7 +28019,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28032,7 +28034,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,19 +28067,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>61.77055186020877</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>214.9797925970632</v>
       </c>
     </row>
     <row r="11">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>93.99127447431644</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>93.99127447431673</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>93.99127447431644</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>93.99127447431644</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>93.99127447431644</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>93.99127447431673</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>93.99127447431644</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29088,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>93.99127447431644</v>
+        <v>35.71049010668788</v>
       </c>
       <c r="K25" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.99127447431658</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R25" t="n">
-        <v>93.99127447431644</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>56.37828989698316</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C32" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D32" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E32" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F32" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G32" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H32" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I32" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T32" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U32" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V32" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W32" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X32" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y32" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C34" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D34" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E34" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F34" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G34" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H34" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I34" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
-        <v>93.99127447431646</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>93.99127447431636</v>
+        <v>5.636002634528353</v>
       </c>
       <c r="P34" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q34" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>93.99127447431646</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T34" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U34" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V34" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W34" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X34" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>93.99127447431646</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>93.99127447431646</v>
+        <v>5.636002634528666</v>
       </c>
       <c r="L37" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M37" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>93.99127447431636</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>93.99127447431646</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>93.99127447431646</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L40" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>93.99127447431646</v>
+        <v>5.636002634529177</v>
       </c>
       <c r="N40" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>93.99127447431634</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>93.99127447431646</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.99127447431646</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="C41" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="D41" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="E41" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="F41" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="G41" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="H41" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="I41" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="T41" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="U41" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="V41" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="W41" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="X41" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="Y41" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="C43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="D43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="E43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="F43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="G43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="H43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="I43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="J43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="K43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="L43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="M43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="N43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="O43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="P43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="R43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="S43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="T43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="U43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="V43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="W43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="X43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
       <c r="Y43" t="n">
-        <v>37.61298457733328</v>
+        <v>74.20952426316271</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30744,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>74.20952426316272</v>
       </c>
     </row>
   </sheetData>
@@ -34702,13 +34704,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N2" t="n">
-        <v>327.1297753528418</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>459.3273621684699</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>275.7460430306818</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>400.4587381985462</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34936,19 +34938,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>74.2628630240068</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>316.9893628657432</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>75.25145091837418</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>7.465299698097541</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35179,19 +35181,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.39872490859134</v>
+        <v>44.47799132937524</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35261,13 +35263,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>302.9262961593793</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>148.7405620940788</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>231.936431306898</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>147.0691510340251</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35726,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35825,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,10 +35971,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>173.4759251752883</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35983,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.91678700215737</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6529321611267</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>259.7767692963364</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>282.1645859271084</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>279.0313088492752</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>258.3395240113953</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P19" t="n">
-        <v>215.0783106122746</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.44803848446892</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>623.9629260562755</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.91678700215737</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6529321611267</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>259.7767692963364</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>282.1645859271084</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>279.0313088492752</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>258.3395240113953</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>215.0783106122746</v>
+        <v>249.385018246236</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.44803848446892</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>485.5370469911907</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>486.5023077495127</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.91678700215737</v>
+        <v>5.636002634528808</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6529321611264</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>259.7767692963364</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>282.1645859271084</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>279.0313088492752</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>258.3395240113953</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>215.0783106122746</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.44803848446907</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M27" t="n">
         <v>634.1127774006881</v>
@@ -36689,7 +36691,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>26.30380242482409</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
-        <v>139.0399475837932</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>222.1637847190032</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
-        <v>244.5516013497751</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>241.418324271942</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
-        <v>220.726539434062</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>177.4653260349413</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.83505390713565</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,7 +36843,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O29" t="n">
         <v>444.4844453457863</v>
@@ -36911,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
@@ -36923,10 +36925,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37084,7 +37086,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37148,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>259.444269251904</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>511.1624453563714</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
@@ -37166,7 +37168,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>63.91678700215738</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6529321611264</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>259.7767692963365</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>282.1645859271084</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>279.0313088492753</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>258.3395240113952</v>
+        <v>169.9842521716072</v>
       </c>
       <c r="P34" t="n">
-        <v>215.0783106122746</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.44803848446894</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N36" t="n">
-        <v>598.8774259673916</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>63.91678700215738</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6529321611264</v>
+        <v>88.29766032133864</v>
       </c>
       <c r="L37" t="n">
-        <v>259.7767692963365</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M37" t="n">
-        <v>282.1645859271084</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>279.0313088492753</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>258.3395240113952</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>215.0783106122746</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.44803848446894</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>113.782083667694</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>51.00106726098203</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37642,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>63.91678700215738</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6529321611264</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L40" t="n">
-        <v>259.7767692963365</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>282.1645859271084</v>
+        <v>193.8093140873211</v>
       </c>
       <c r="N40" t="n">
-        <v>279.0313088492753</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>258.3395240113953</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>215.0783106122746</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.44803848446882</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N42" t="n">
-        <v>598.8774259673916</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>7.538497105174208</v>
+        <v>44.13503679100364</v>
       </c>
       <c r="K43" t="n">
-        <v>120.2746422641433</v>
+        <v>156.8711819499727</v>
       </c>
       <c r="L43" t="n">
-        <v>203.3984793993533</v>
+        <v>239.9950190851827</v>
       </c>
       <c r="M43" t="n">
-        <v>225.7862960301252</v>
+        <v>262.3828357159547</v>
       </c>
       <c r="N43" t="n">
-        <v>222.6530189522921</v>
+        <v>259.2495586381215</v>
       </c>
       <c r="O43" t="n">
-        <v>201.9612341144122</v>
+        <v>238.5577738002416</v>
       </c>
       <c r="P43" t="n">
-        <v>158.7000207152914</v>
+        <v>195.2965604011209</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.06974858748576</v>
+        <v>77.66628827331519</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>544.4495127227025</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>583.1944794342759</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>44.13503679100365</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>156.8711819499727</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>239.9950190851827</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>262.3828357159547</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>259.2495586381215</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>238.5577738002416</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>195.2965604011209</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>77.6662882733152</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3502943.11945155</v>
+        <v>3502427.489837193</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>826053.9034197849</v>
+        <v>826053.9034197847</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>67.24420928000883</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>22.16329766222912</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -709,16 +709,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -791,7 +791,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830814</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>91.98633910696991</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>7.211306606662985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>28.534929991488</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>291.1024274144769</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>194.8016340406826</v>
+        <v>273.2405793882182</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>349.0936187611575</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>368.2586139054725</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>86.80189607361297</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.901147974459909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1378,19 +1378,19 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>88.24365047454729</v>
+        <v>74.07584602384659</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
@@ -1432,13 +1432,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1587,13 +1587,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1609,16 +1609,16 @@
         <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077822</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>77.77021215229183</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>68.45626899976942</v>
       </c>
       <c r="G14" t="n">
         <v>315.0398534825604</v>
@@ -1627,7 +1627,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C16" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I16" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1855,16 +1855,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.59377642287549</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="20">
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277517</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059288</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>182.776950617098</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
-        <v>287.5954430211825</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>304.5664151603044</v>
@@ -2575,7 +2575,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
-        <v>291.5668045419573</v>
+        <v>274.7257631841692</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.7722066349763</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2800,10 +2800,10 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
         <v>315.0398534825604</v>
@@ -2812,7 +2812,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>130.5391917633218</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>90.19129716406084</v>
       </c>
       <c r="X29" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943275</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3006,16 +3006,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662018</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3031,7 +3031,7 @@
         <v>266.1298289386985</v>
       </c>
       <c r="C32" t="n">
-        <v>258.8837771665146</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D32" t="n">
         <v>251.2267481799145</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190352</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3283,10 +3283,10 @@
         <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541626</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>322.2802739911202</v>
+        <v>322.2802739911201</v>
       </c>
       <c r="C41" t="n">
-        <v>315.034222218936</v>
+        <v>315.0342222189359</v>
       </c>
       <c r="D41" t="n">
-        <v>307.3771932323363</v>
+        <v>307.3771932323361</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>324.3481653714581</v>
       </c>
       <c r="F41" t="n">
-        <v>338.5159698221593</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>154.1846841900552</v>
+        <v>140.4578148708572</v>
       </c>
       <c r="I41" t="n">
-        <v>62.74422147529711</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>90.63889524519713</v>
       </c>
       <c r="T41" t="n">
-        <v>147.0560721530148</v>
+        <v>147.0560721530147</v>
       </c>
       <c r="U41" t="n">
-        <v>178.9856780065847</v>
+        <v>178.9856780065846</v>
       </c>
       <c r="V41" t="n">
-        <v>264.4762169403541</v>
+        <v>264.476216940354</v>
       </c>
       <c r="W41" t="n">
-        <v>293.0795204182327</v>
+        <v>293.0795204182326</v>
       </c>
       <c r="X41" t="n">
-        <v>311.348554753111</v>
+        <v>311.3485547531109</v>
       </c>
       <c r="Y41" t="n">
-        <v>318.3162777254422</v>
+        <v>318.3162777254421</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>109.1464142412256</v>
+        <v>109.1464142412255</v>
       </c>
       <c r="C43" t="n">
-        <v>94.29354249150796</v>
+        <v>94.29354249150786</v>
       </c>
       <c r="D43" t="n">
-        <v>79.86725770334769</v>
+        <v>79.86725770334759</v>
       </c>
       <c r="E43" t="n">
-        <v>79.7936997562268</v>
+        <v>79.7936997562267</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.5770824528368</v>
       </c>
       <c r="G43" t="n">
-        <v>92.3619890983862</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>79.71424126495825</v>
+        <v>79.71424126495815</v>
       </c>
       <c r="I43" t="n">
-        <v>57.55395684613018</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>48.45245521058609</v>
+        <v>48.452455210586</v>
       </c>
       <c r="S43" t="n">
-        <v>42.33255281667901</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>208.3748795773554</v>
+        <v>208.3748795773553</v>
       </c>
       <c r="V43" t="n">
-        <v>189.1100274642213</v>
+        <v>189.1100274642212</v>
       </c>
       <c r="W43" t="n">
         <v>206.2875737849714</v>
       </c>
       <c r="X43" t="n">
-        <v>157.529994731684</v>
+        <v>157.5299947316839</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>146.6714163083603</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>322.2802739911202</v>
+        <v>322.2802739911201</v>
       </c>
       <c r="C44" t="n">
-        <v>315.034222218936</v>
+        <v>315.0342222189359</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>307.3771932323361</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>324.3481653714581</v>
       </c>
       <c r="F44" t="n">
-        <v>338.5159698221593</v>
+        <v>338.5159698221592</v>
       </c>
       <c r="G44" t="n">
-        <v>334.8216036937141</v>
+        <v>301.2154383925275</v>
       </c>
       <c r="H44" t="n">
-        <v>246.6326956660115</v>
+        <v>246.6326956660114</v>
       </c>
       <c r="I44" t="n">
-        <v>62.7442214752971</v>
+        <v>62.74422147529701</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>90.63889524519722</v>
+        <v>90.63889524519713</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>147.0560721530147</v>
       </c>
       <c r="U44" t="n">
-        <v>178.9856780065846</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>201.0009719108376</v>
+        <v>264.476216940354</v>
       </c>
       <c r="W44" t="n">
-        <v>293.0795204182327</v>
+        <v>293.0795204182326</v>
       </c>
       <c r="X44" t="n">
-        <v>311.348554753111</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.3162777254421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>109.1464142412255</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>94.29354249150795</v>
+        <v>94.29354249150786</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>79.86725770334759</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>17.81090255387377</v>
       </c>
       <c r="F46" t="n">
-        <v>81.54315117599405</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>75.20838896665938</v>
+        <v>79.71424126495815</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>57.55395684613008</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>48.45245521058608</v>
+        <v>48.452455210586</v>
       </c>
       <c r="S46" t="n">
-        <v>126.5783987161134</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>159.1523370502855</v>
+        <v>159.1523370502854</v>
       </c>
       <c r="U46" t="n">
         <v>208.3748795773553</v>
       </c>
       <c r="V46" t="n">
-        <v>189.1100274642213</v>
+        <v>189.1100274642212</v>
       </c>
       <c r="W46" t="n">
         <v>206.2875737849714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>157.5299947316839</v>
       </c>
       <c r="Y46" t="n">
         <v>146.6714163083603</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>632.5971671495322</v>
+        <v>1058.454908578377</v>
       </c>
       <c r="C2" t="n">
-        <v>632.5971671495322</v>
+        <v>665.2794070813077</v>
       </c>
       <c r="D2" t="n">
-        <v>632.5971671495322</v>
+        <v>665.2794070813077</v>
       </c>
       <c r="E2" t="n">
-        <v>230.0136422660767</v>
+        <v>262.6958821978522</v>
       </c>
       <c r="F2" t="n">
-        <v>217.1596078364585</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G2" t="n">
-        <v>208.0372563648658</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H2" t="n">
         <v>185.6500870090788</v>
@@ -4333,22 +4333,22 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L2" t="n">
-        <v>1044.265390756362</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M2" t="n">
-        <v>1392.575851912381</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N2" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q2" t="n">
         <v>2365.64850507718</v>
@@ -4357,25 +4357,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T2" t="n">
-        <v>2161.142036303753</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U2" t="n">
-        <v>2161.142036303753</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V2" t="n">
-        <v>1819.035227007271</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W2" t="n">
-        <v>1819.035227007271</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="X2" t="n">
-        <v>1429.582621940328</v>
+        <v>1458.949654289774</v>
       </c>
       <c r="Y2" t="n">
-        <v>1033.091912860929</v>
+        <v>1458.949654289774</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>47.31297010154361</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>632.8109751081457</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N3" t="n">
-        <v>1218.308980114748</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O3" t="n">
-        <v>1734.829262705729</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4439,13 +4439,13 @@
         <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>303.7011596858081</v>
+        <v>379.0397195389182</v>
       </c>
       <c r="C4" t="n">
-        <v>303.7011596858081</v>
+        <v>379.0397195389182</v>
       </c>
       <c r="D4" t="n">
-        <v>303.7011596858081</v>
+        <v>379.0397195389182</v>
       </c>
       <c r="E4" t="n">
-        <v>303.7011596858081</v>
+        <v>379.0397195389182</v>
       </c>
       <c r="F4" t="n">
-        <v>303.7011596858081</v>
+        <v>379.0397195389182</v>
       </c>
       <c r="G4" t="n">
         <v>210.7856656383638</v>
@@ -4515,25 +4515,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>824.8590032756731</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T4" t="n">
-        <v>589.1399514439072</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U4" t="n">
-        <v>303.7011596858081</v>
+        <v>379.0397195389182</v>
       </c>
       <c r="V4" t="n">
-        <v>303.7011596858081</v>
+        <v>379.0397195389182</v>
       </c>
       <c r="W4" t="n">
-        <v>303.7011596858081</v>
+        <v>379.0397195389182</v>
       </c>
       <c r="X4" t="n">
-        <v>303.7011596858081</v>
+        <v>379.0397195389182</v>
       </c>
       <c r="Y4" t="n">
-        <v>303.7011596858081</v>
+        <v>379.0397195389182</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1230.276376124636</v>
+        <v>1147.694083084829</v>
       </c>
       <c r="C5" t="n">
-        <v>1230.276376124636</v>
+        <v>754.5185815877596</v>
       </c>
       <c r="D5" t="n">
-        <v>1201.453214517072</v>
+        <v>754.5185815877596</v>
       </c>
       <c r="E5" t="n">
-        <v>1201.453214517072</v>
+        <v>754.5185815877596</v>
       </c>
       <c r="F5" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G5" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
         <v>47.31297010154361</v>
@@ -4570,19 +4570,19 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>265.4829774041385</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>758.8032691226673</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1304.804169167248</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N5" t="n">
-        <v>1832.61545280471</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O5" t="n">
-        <v>1832.61545280471</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P5" t="n">
         <v>2180.802944936232</v>
@@ -4591,28 +4591,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T5" t="n">
-        <v>2199.134950018231</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U5" t="n">
-        <v>1943.38222045283</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V5" t="n">
-        <v>1601.275411156348</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W5" t="n">
-        <v>1230.276376124636</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X5" t="n">
-        <v>1230.276376124636</v>
+        <v>1548.188828796226</v>
       </c>
       <c r="Y5" t="n">
-        <v>1230.276376124636</v>
+        <v>1548.188828796226</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K6" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L6" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N6" t="n">
-        <v>1436.116207068686</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O6" t="n">
-        <v>1952.636489659666</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P6" t="n">
-        <v>2358.257858376064</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.64850507718</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.69124027544166</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="C7" t="n">
-        <v>77.69124027544166</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="D7" t="n">
-        <v>77.69124027544166</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="E7" t="n">
-        <v>77.69124027544166</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="F7" t="n">
-        <v>77.69124027544166</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
         <v>47.31297010154361</v>
@@ -4758,19 +4758,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>751.9906653292753</v>
+        <v>672.7594074024717</v>
       </c>
       <c r="V7" t="n">
-        <v>486.0113201500996</v>
+        <v>672.7594074024717</v>
       </c>
       <c r="W7" t="n">
-        <v>486.0113201500996</v>
+        <v>672.7594074024717</v>
       </c>
       <c r="X7" t="n">
-        <v>486.0113201500996</v>
+        <v>438.6790851854547</v>
       </c>
       <c r="Y7" t="n">
-        <v>262.8992589667429</v>
+        <v>215.5670240020981</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.925428881273</v>
+        <v>1956.65655633099</v>
       </c>
       <c r="C8" t="n">
-        <v>935.7499273842031</v>
+        <v>1956.65655633099</v>
       </c>
       <c r="D8" t="n">
-        <v>935.7499273842031</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E8" t="n">
-        <v>935.7499273842031</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F8" t="n">
-        <v>518.8554889141809</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1973.427801529577</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2321.615293661099</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4837,19 +4837,19 @@
         <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>2071.902861797301</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>2071.902861797301</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>1700.903826765588</v>
+        <v>1956.65655633099</v>
       </c>
       <c r="X8" t="n">
-        <v>1328.925428881273</v>
+        <v>1956.65655633099</v>
       </c>
       <c r="Y8" t="n">
-        <v>1328.925428881273</v>
+        <v>1956.65655633099</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834974</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486198</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4928,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>336.6041277001235</v>
+        <v>861.0813097404567</v>
       </c>
       <c r="V10" t="n">
-        <v>336.6041277001235</v>
+        <v>595.101964561281</v>
       </c>
       <c r="W10" t="n">
-        <v>53.27372563130109</v>
+        <v>311.7715624924585</v>
       </c>
       <c r="X10" t="n">
-        <v>53.27372563130109</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1320.171044252416</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C11" t="n">
-        <v>1021.936224042535</v>
+        <v>1021.936224042536</v>
       </c>
       <c r="D11" t="n">
-        <v>731.4357765463913</v>
+        <v>731.4357765463916</v>
       </c>
       <c r="E11" t="n">
-        <v>423.7929329501241</v>
+        <v>731.4357765463916</v>
       </c>
       <c r="F11" t="n">
-        <v>423.7929329501241</v>
+        <v>409.4820193635577</v>
       </c>
       <c r="G11" t="n">
         <v>334.6579324707834</v>
@@ -5120,22 +5120,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>318.9689542635005</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C13" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979811</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G13" t="n">
         <v>160.810741531167</v>
@@ -5205,13 +5205,13 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
         <v>1368.802215879041</v>
@@ -5232,19 +5232,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852102</v>
+        <v>850.66272518521</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>1320.171044252417</v>
       </c>
       <c r="C14" t="n">
-        <v>1021.936224042536</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="D14" t="n">
-        <v>731.4357765463916</v>
+        <v>1029.670596756273</v>
       </c>
       <c r="E14" t="n">
-        <v>652.8800066955918</v>
+        <v>722.0277531600054</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955918</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707833</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244623</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5360,22 +5360,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>1458.313011372373</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551002</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
         <v>357.127498497981</v>
@@ -5427,7 +5427,7 @@
         <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5478,10 +5478,10 @@
         <v>850.6627251852101</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592132</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="17">
@@ -5500,16 +5500,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5518,7 +5518,7 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5542,7 +5542,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5551,10 +5551,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5594,19 +5594,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>84.60386270860994</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>84.60386270860994</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>568.1699486069232</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5676,49 +5676,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567345</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072222</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924223</v>
@@ -5779,7 +5779,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5788,16 +5788,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>580.3847592515303</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.156408878212</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5916,22 +5916,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
@@ -6025,7 +6025,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6068,22 +6068,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>862.5399502876207</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1490.311599914302</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>2146.089571124861</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6147,25 +6147,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229905</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222409</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960407</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9530296343048</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N25" t="n">
-        <v>683.142663665514</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072221</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>965.7235964838006</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1871.211875180717</v>
+        <v>1537.314992064227</v>
       </c>
       <c r="C26" t="n">
-        <v>1572.977054970836</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="D26" t="n">
-        <v>1282.476607474693</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E26" t="n">
-        <v>974.8337638784257</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F26" t="n">
-        <v>652.8800066955918</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G26" t="n">
-        <v>334.6579324707833</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5155633244623</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J26" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K26" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L26" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M26" t="n">
         <v>1605.072448403515</v>
@@ -6253,25 +6253,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U26" t="n">
-        <v>2873.571463155803</v>
+        <v>2945.144336927563</v>
       </c>
       <c r="V26" t="n">
-        <v>2626.40533514651</v>
+        <v>2697.97820891827</v>
       </c>
       <c r="W26" t="n">
-        <v>2350.346981401985</v>
+        <v>2421.919855173746</v>
       </c>
       <c r="X26" t="n">
-        <v>2055.835057622231</v>
+        <v>2144.419084280646</v>
       </c>
       <c r="Y26" t="n">
-        <v>2055.835057622231</v>
+        <v>1842.869056488435</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N27" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>493.0843669551001</v>
+        <v>493.0843669551002</v>
       </c>
       <c r="C28" t="n">
-        <v>417.8199303082777</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D28" t="n">
-        <v>357.1274984979808</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E28" t="n">
         <v>296.5093676443717</v>
@@ -6378,13 +6378,13 @@
         <v>160.8107415311669</v>
       </c>
       <c r="H28" t="n">
-        <v>100.2728717798493</v>
+        <v>100.2728717798492</v>
       </c>
       <c r="I28" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K28" t="n">
         <v>300.2831496757665</v>
@@ -6402,7 +6402,7 @@
         <v>1368.802215879041</v>
       </c>
       <c r="P28" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q28" t="n">
         <v>1678.203301484817</v>
@@ -6414,7 +6414,7 @@
         <v>1541.36759087432</v>
       </c>
       <c r="T28" t="n">
-        <v>1400.589220329743</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U28" t="n">
         <v>1210.091109858831</v>
@@ -6423,13 +6423,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W28" t="n">
-        <v>850.6627251852099</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X28" t="n">
-        <v>711.5230842553813</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y28" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1549.258117997884</v>
+        <v>1871.211875180718</v>
       </c>
       <c r="C29" t="n">
-        <v>1251.023297788003</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D29" t="n">
-        <v>960.522850291859</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E29" t="n">
-        <v>652.8800066955919</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F29" t="n">
         <v>652.8800066955919</v>
@@ -6463,13 +6463,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J29" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K29" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L29" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M29" t="n">
         <v>1605.072448403515</v>
@@ -6493,22 +6493,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T29" t="n">
-        <v>3105.956385205776</v>
+        <v>2977.396464052381</v>
       </c>
       <c r="U29" t="n">
-        <v>2974.098615747876</v>
+        <v>2816.584415774169</v>
       </c>
       <c r="V29" t="n">
-        <v>2726.932487738582</v>
+        <v>2569.418287764875</v>
       </c>
       <c r="W29" t="n">
-        <v>2450.874133994058</v>
+        <v>2478.315967397137</v>
       </c>
       <c r="X29" t="n">
-        <v>2156.362210214303</v>
+        <v>2478.315967397137</v>
       </c>
       <c r="Y29" t="n">
-        <v>1854.812182422093</v>
+        <v>2176.765939604927</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M30" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>2148.973980501895</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C31" t="n">
         <v>417.8199303082779</v>
@@ -6606,7 +6606,7 @@
         <v>357.127498497981</v>
       </c>
       <c r="E31" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F31" t="n">
         <v>234.1241141445331</v>
@@ -6630,13 +6630,13 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M31" t="n">
-        <v>836.8050913469767</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N31" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O31" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P31" t="n">
         <v>1581.729743385192</v>
@@ -6660,13 +6660,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W31" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X31" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="32">
@@ -6779,25 +6779,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>318.9689542635005</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="L33" t="n">
-        <v>802.5350401618138</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M33" t="n">
-        <v>802.5350401618138</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2243.686201918056</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C34" t="n">
-        <v>2205.157820666454</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D34" t="n">
-        <v>2181.201444251377</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E34" t="n">
-        <v>2157.319368792988</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F34" t="n">
-        <v>2131.67017068837</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G34" t="n">
-        <v>2095.092853470223</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H34" t="n">
-        <v>2071.291039114126</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I34" t="n">
-        <v>2069.873350433612</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>2069.873350433612</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>2151.708391543554</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>2315.836031417354</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>2502.127609755618</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>2685.317243786827</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>2853.601653436718</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P34" t="n">
-        <v>3102.534188835725</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R34" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S34" t="n">
-        <v>3034.817038070734</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T34" t="n">
-        <v>2930.774722921377</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U34" t="n">
-        <v>2777.012667845686</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V34" t="n">
-        <v>2642.710059348919</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W34" t="n">
-        <v>2491.056393962505</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X34" t="n">
-        <v>2388.652808427897</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y34" t="n">
-        <v>2297.217483926949</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924221</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
@@ -6955,7 +6955,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6970,7 +6970,7 @@
         <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -6979,10 +6979,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="36">
@@ -7013,19 +7013,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072666</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462913</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411552</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222408</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L37" t="n">
-        <v>442.7178209184691</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567331</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879423</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7253,25 +7253,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>174.7633905351325</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>174.7633905351325</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2243.686201918055</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>2205.157820666453</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>2181.201444251376</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>2157.319368792987</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>2131.670170688369</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>2095.092853470223</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>2071.291039114125</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
-        <v>2069.873350433611</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>2069.873350433611</v>
+        <v>67.69877031229973</v>
       </c>
       <c r="K40" t="n">
-        <v>2280.764761165982</v>
+        <v>149.5338114222416</v>
       </c>
       <c r="L40" t="n">
-        <v>2444.892401039781</v>
+        <v>313.6614512960414</v>
       </c>
       <c r="M40" t="n">
-        <v>2636.763621986229</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N40" t="n">
-        <v>2819.953256017438</v>
+        <v>683.1426636655146</v>
       </c>
       <c r="O40" t="n">
-        <v>2982.658023059147</v>
+        <v>845.8474307072227</v>
       </c>
       <c r="P40" t="n">
-        <v>3102.534188835725</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q40" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R40" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
-        <v>3034.817038070734</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>2930.774722921377</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>2777.012667845686</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>2642.710059348919</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>2491.056393962505</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>2388.652808427897</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>2297.217483926948</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1251.87295693521</v>
+        <v>1160.318517293598</v>
       </c>
       <c r="C41" t="n">
-        <v>933.6565708554771</v>
+        <v>842.1021312138646</v>
       </c>
       <c r="D41" t="n">
-        <v>623.1745574894808</v>
+        <v>531.6201178478684</v>
       </c>
       <c r="E41" t="n">
-        <v>623.1745574894808</v>
+        <v>203.9957083817491</v>
       </c>
       <c r="F41" t="n">
-        <v>281.2392344367946</v>
+        <v>203.9957083817491</v>
       </c>
       <c r="G41" t="n">
-        <v>281.2392344367946</v>
+        <v>203.9957083817491</v>
       </c>
       <c r="H41" t="n">
-        <v>125.4971291943146</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411552</v>
@@ -7438,25 +7438,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3014.401945564163</v>
       </c>
       <c r="T41" t="n">
-        <v>2957.414898182529</v>
+        <v>2865.860458540916</v>
       </c>
       <c r="U41" t="n">
-        <v>2776.621284034463</v>
+        <v>2685.06684439285</v>
       </c>
       <c r="V41" t="n">
-        <v>2509.473590155318</v>
+        <v>2417.919150513705</v>
       </c>
       <c r="W41" t="n">
-        <v>2213.433670540941</v>
+        <v>2121.879230899328</v>
       </c>
       <c r="X41" t="n">
-        <v>1898.940180891334</v>
+        <v>1807.385741249721</v>
       </c>
       <c r="Y41" t="n">
-        <v>1577.408587229271</v>
+        <v>1485.854147587659</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>550.5885086743752</v>
+        <v>445.1957172686378</v>
       </c>
       <c r="C43" t="n">
-        <v>455.3425061577005</v>
+        <v>349.9497147519633</v>
       </c>
       <c r="D43" t="n">
-        <v>374.6685084775513</v>
+        <v>269.2757170718141</v>
       </c>
       <c r="E43" t="n">
-        <v>294.0688117540899</v>
+        <v>188.6760203483528</v>
       </c>
       <c r="F43" t="n">
-        <v>294.0688117540899</v>
+        <v>142.6385633252854</v>
       </c>
       <c r="G43" t="n">
-        <v>200.7738732708715</v>
+        <v>142.6385633252854</v>
       </c>
       <c r="H43" t="n">
-        <v>120.2544376497016</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411552</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8128141272091</v>
+        <v>105.8128141272092</v>
       </c>
       <c r="K43" t="n">
-        <v>261.1152842576821</v>
+        <v>261.1152842576822</v>
       </c>
       <c r="L43" t="n">
-        <v>498.710353152013</v>
+        <v>498.7103531520132</v>
       </c>
       <c r="M43" t="n">
-        <v>758.4693605108082</v>
+        <v>758.4693605108084</v>
       </c>
       <c r="N43" t="n">
-        <v>1015.126423562548</v>
+        <v>1015.126423562549</v>
       </c>
       <c r="O43" t="n">
         <v>1251.298619624788</v>
       </c>
       <c r="P43" t="n">
-        <v>1444.642214421897</v>
+        <v>1444.642214421898</v>
       </c>
       <c r="Q43" t="n">
-        <v>1521.531839812479</v>
+        <v>1521.53183981248</v>
       </c>
       <c r="R43" t="n">
-        <v>1472.589965862392</v>
+        <v>1472.589965862393</v>
       </c>
       <c r="S43" t="n">
-        <v>1429.82981150211</v>
+        <v>1472.589965862393</v>
       </c>
       <c r="T43" t="n">
-        <v>1429.82981150211</v>
+        <v>1472.589965862393</v>
       </c>
       <c r="U43" t="n">
-        <v>1219.350135161347</v>
+        <v>1262.11028952163</v>
       </c>
       <c r="V43" t="n">
-        <v>1028.329905399508</v>
+        <v>1071.09005975979</v>
       </c>
       <c r="W43" t="n">
-        <v>819.9586187480213</v>
+        <v>862.7187731083042</v>
       </c>
       <c r="X43" t="n">
-        <v>660.8374119483404</v>
+        <v>703.5975663086234</v>
       </c>
       <c r="Y43" t="n">
-        <v>660.8374119483404</v>
+        <v>555.4446205426029</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1372.976413437568</v>
+        <v>1977.137214753333</v>
       </c>
       <c r="C44" t="n">
-        <v>1054.760027357835</v>
+        <v>1658.9208286736</v>
       </c>
       <c r="D44" t="n">
-        <v>1054.760027357835</v>
+        <v>1348.438815307604</v>
       </c>
       <c r="E44" t="n">
-        <v>1054.760027357835</v>
+        <v>1020.814405841484</v>
       </c>
       <c r="F44" t="n">
-        <v>712.8247043051485</v>
+        <v>678.8790827887983</v>
       </c>
       <c r="G44" t="n">
-        <v>374.6210642104879</v>
+        <v>374.6210642104877</v>
       </c>
       <c r="H44" t="n">
-        <v>125.4971291943146</v>
+        <v>125.4971291943145</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411552</v>
@@ -7675,25 +7675,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3014.401945564162</v>
+        <v>3014.401945564163</v>
       </c>
       <c r="T44" t="n">
-        <v>3014.401945564162</v>
+        <v>2865.860458540916</v>
       </c>
       <c r="U44" t="n">
-        <v>2833.608331416097</v>
+        <v>2865.860458540916</v>
       </c>
       <c r="V44" t="n">
-        <v>2630.577046657675</v>
+        <v>2598.71276466177</v>
       </c>
       <c r="W44" t="n">
-        <v>2334.537127043298</v>
+        <v>2302.672845047394</v>
       </c>
       <c r="X44" t="n">
-        <v>2020.043637393691</v>
+        <v>2302.672845047394</v>
       </c>
       <c r="Y44" t="n">
-        <v>1698.512043731629</v>
+        <v>2302.672845047394</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1286.571845448837</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>315.7000192537735</v>
+        <v>394.6846841281736</v>
       </c>
       <c r="C46" t="n">
-        <v>220.4540167370988</v>
+        <v>299.438681611499</v>
       </c>
       <c r="D46" t="n">
-        <v>220.4540167370988</v>
+        <v>218.7646839313499</v>
       </c>
       <c r="E46" t="n">
-        <v>220.4540167370988</v>
+        <v>200.7738732708713</v>
       </c>
       <c r="F46" t="n">
-        <v>138.0871973674078</v>
+        <v>200.7738732708713</v>
       </c>
       <c r="G46" t="n">
-        <v>138.0871973674078</v>
+        <v>200.7738732708713</v>
       </c>
       <c r="H46" t="n">
-        <v>62.11912770411552</v>
+        <v>120.2544376497015</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8128141272091</v>
+        <v>105.8128141272092</v>
       </c>
       <c r="K46" t="n">
-        <v>261.1152842576821</v>
+        <v>261.1152842576822</v>
       </c>
       <c r="L46" t="n">
-        <v>498.710353152013</v>
+        <v>498.7103531520132</v>
       </c>
       <c r="M46" t="n">
-        <v>758.4693605108082</v>
+        <v>758.4693605108084</v>
       </c>
       <c r="N46" t="n">
         <v>1015.126423562549</v>
@@ -7833,25 +7833,25 @@
         <v>1472.589965862393</v>
       </c>
       <c r="S46" t="n">
-        <v>1344.732997462278</v>
+        <v>1472.589965862393</v>
       </c>
       <c r="T46" t="n">
-        <v>1183.973061047848</v>
+        <v>1311.830029447963</v>
       </c>
       <c r="U46" t="n">
-        <v>973.4933847070852</v>
+        <v>1101.350353107201</v>
       </c>
       <c r="V46" t="n">
-        <v>782.4731549452455</v>
+        <v>910.330123345361</v>
       </c>
       <c r="W46" t="n">
-        <v>574.1018682937593</v>
+        <v>701.9588366938748</v>
       </c>
       <c r="X46" t="n">
-        <v>574.1018682937593</v>
+        <v>542.837629894194</v>
       </c>
       <c r="Y46" t="n">
-        <v>425.9489225277387</v>
+        <v>394.6846841281736</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>501.5538002401705</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>498.7523067719748</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7999,7 +7999,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,13 +8057,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
         <v>683.7992483186069</v>
@@ -8072,13 +8072,13 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P3" t="n">
-        <v>487.5421030178609</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8218,7 +8218,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>217.3212662032442</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8230,10 +8230,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>212.9227975229111</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8294,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8306,7 +8306,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8315,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>98.45345285401153</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>468.0425993879824</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8467,13 +8467,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>188.9766897477674</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8540,19 +8540,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>388.298409013546</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,16 +8768,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>349.0412045852374</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>324.3235533562099</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8786,7 +8786,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9008,25 +9008,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>126.0381992661173</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9181,7 +9181,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9242,22 +9242,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>105.1563108732267</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9479,16 +9479,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
@@ -9497,10 +9497,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,25 +9716,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>575.5973938481089</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9953,19 +9953,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10199,19 +10199,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>320.902235706038</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>349.0412045852374</v>
+        <v>374.1267046741214</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10594,7 +10594,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N35" t="n">
         <v>682.2612020826953</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10673,10 +10673,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10901,19 +10901,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.2265410010273</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10922,7 +10922,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,19 +11138,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>351.8313913012159</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11159,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11378,25 +11378,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>668.5665922884425</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23266,13 +23266,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>226.7962030080131</v>
+        <v>240.9640074587138</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>226.7962030080126</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>318.7342196110055</v>
+        <v>250.2779506112361</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>119.7215731628685</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>16.84104135778801</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110055</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>28.66473603210918</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>183.1064730430181</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>324.3481653714582</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>338.5159698221592</v>
       </c>
       <c r="G41" t="n">
         <v>334.8216036937141</v>
       </c>
       <c r="H41" t="n">
-        <v>92.44801147595635</v>
+        <v>106.1748807951542</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>62.74422147529701</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>90.63889524519723</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>81.54315117599407</v>
+        <v>35.96606872315717</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>92.3619890983861</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>57.55395684613008</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>84.2458458994344</v>
+        <v>126.5783987161133</v>
       </c>
       <c r="T43" t="n">
-        <v>159.1523370502855</v>
+        <v>159.1523370502854</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6714163083604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>307.3771932323362</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>324.3481653714582</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>33.60616530118659</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>147.0560721530148</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>178.9856780065846</v>
       </c>
       <c r="V44" t="n">
-        <v>63.47524502951643</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>311.3485547531109</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>318.3162777254421</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>109.1464142412255</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>79.86725770334768</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>79.79369975622679</v>
+        <v>61.98279720235293</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>81.54315117599397</v>
       </c>
       <c r="G46" t="n">
-        <v>92.36198909838619</v>
+        <v>92.3619890983861</v>
       </c>
       <c r="H46" t="n">
-        <v>4.505852298298848</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>57.55395684613016</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>126.5783987161133</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>157.529994731684</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>586780.3792675789</v>
+        <v>586780.3792675788</v>
       </c>
     </row>
     <row r="4">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>560045.5400183419</v>
+        <v>560045.5400183417</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>560045.5400183416</v>
+        <v>560045.5400183417</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>592613.7062486972</v>
+        <v>592613.7062486971</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>533841.9531964401</v>
+        <v>533841.9531964402</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>721328.712373427</v>
+      </c>
+      <c r="C2" t="n">
         <v>721328.7123734271</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
+        <v>721328.712373427</v>
+      </c>
+      <c r="E2" t="n">
+        <v>677904.490732954</v>
+      </c>
+      <c r="F2" t="n">
+        <v>677904.4907329543</v>
+      </c>
+      <c r="G2" t="n">
+        <v>721328.7123734268</v>
+      </c>
+      <c r="H2" t="n">
+        <v>721328.7123734272</v>
+      </c>
+      <c r="I2" t="n">
         <v>721328.7123734269</v>
       </c>
-      <c r="D2" t="n">
-        <v>721328.7123734271</v>
-      </c>
-      <c r="E2" t="n">
-        <v>677904.4907329541</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>677904.4907329524</v>
+      </c>
+      <c r="K2" t="n">
         <v>677904.4907329534</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
+        <v>721328.7123734266</v>
+      </c>
+      <c r="M2" t="n">
         <v>721328.7123734269</v>
       </c>
-      <c r="H2" t="n">
-        <v>721328.7123734269</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>721328.7123734268</v>
       </c>
-      <c r="J2" t="n">
-        <v>677904.4907329532</v>
-      </c>
-      <c r="K2" t="n">
-        <v>677904.4907329525</v>
-      </c>
-      <c r="L2" t="n">
-        <v>721328.7123734271</v>
-      </c>
-      <c r="M2" t="n">
-        <v>721328.7123734266</v>
-      </c>
-      <c r="N2" t="n">
-        <v>721328.7123734266</v>
-      </c>
       <c r="O2" t="n">
-        <v>642966.3749704182</v>
+        <v>642966.3749704179</v>
       </c>
       <c r="P2" t="n">
         <v>642966.3749704182</v>
@@ -26380,31 +26380,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301433</v>
+        <v>29094.95587301429</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>200837.4980720423</v>
+        <v>200837.4980720422</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>58189.9117460287</v>
+        <v>58189.91174602866</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989164</v>
+        <v>46121.92123989166</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1177.707664501526</v>
+        <v>1177.707664501588</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,16 +26432,16 @@
         <v>148856.2633404648</v>
       </c>
       <c r="G4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="H4" t="n">
         <v>173460.5839839468</v>
       </c>
       <c r="I4" t="n">
-        <v>173460.5839839467</v>
+        <v>173460.5839839468</v>
       </c>
       <c r="J4" t="n">
-        <v>148856.2633404649</v>
+        <v>148856.2633404648</v>
       </c>
       <c r="K4" t="n">
         <v>148856.2633404648</v>
@@ -26453,13 +26453,13 @@
         <v>173460.5839839468</v>
       </c>
       <c r="N4" t="n">
-        <v>173460.5839839467</v>
+        <v>173460.5839839468</v>
       </c>
       <c r="O4" t="n">
-        <v>128865.9002561803</v>
+        <v>128865.9002561804</v>
       </c>
       <c r="P4" t="n">
-        <v>128865.9002561803</v>
+        <v>128865.9002561804</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26493,7 +26493,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>55112.28950890911</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="K5" t="n">
         <v>55112.2895089091</v>
@@ -26502,7 +26502,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>253417.5150465959</v>
+        <v>253417.5150465958</v>
       </c>
       <c r="C6" t="n">
-        <v>451613.3210383406</v>
+        <v>451613.3210383408</v>
       </c>
       <c r="D6" t="n">
-        <v>451613.3210383409</v>
+        <v>451613.3210383407</v>
       </c>
       <c r="E6" t="n">
-        <v>343483.0067458681</v>
+        <v>343374.4461917668</v>
       </c>
       <c r="F6" t="n">
-        <v>473935.9378835795</v>
+        <v>473827.3773294793</v>
       </c>
       <c r="G6" t="n">
-        <v>460603.4032009462</v>
+        <v>460603.4032009461</v>
       </c>
       <c r="H6" t="n">
-        <v>489698.3590739605</v>
+        <v>489698.3590739609</v>
       </c>
       <c r="I6" t="n">
         <v>489698.3590739604</v>
       </c>
       <c r="J6" t="n">
-        <v>273098.439811537</v>
+        <v>272989.879257435</v>
       </c>
       <c r="K6" t="n">
-        <v>473935.9378835786</v>
+        <v>473827.3773294783</v>
       </c>
       <c r="L6" t="n">
-        <v>431508.447327932</v>
+        <v>431508.4473279315</v>
       </c>
       <c r="M6" t="n">
-        <v>443576.4378340686</v>
+        <v>443576.4378340688</v>
       </c>
       <c r="N6" t="n">
-        <v>489698.3590739603</v>
+        <v>489698.3590739604</v>
       </c>
       <c r="O6" t="n">
-        <v>459473.5094993287</v>
+        <v>459277.6036558208</v>
       </c>
       <c r="P6" t="n">
-        <v>460651.2171638302</v>
+        <v>460455.3113203226</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26709,10 +26709,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
@@ -26724,10 +26724,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="P2" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
     </row>
     <row r="3">
@@ -26822,7 +26822,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="M4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26916,28 +26916,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126791</v>
+        <v>36.36869484126787</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304855</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253588</v>
+        <v>72.73738968253582</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.472134580626907</v>
+        <v>1.472134580626985</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321489</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,22 +27153,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126791</v>
+        <v>36.36869484126787</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304855</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>345.4812848053132</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>298.6789222669451</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27551,7 +27551,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>74.585174254579</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.3730972338551</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>353.0517875040109</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>121.623066670845</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27788,7 +27788,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27797,7 +27797,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,16 +27830,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>87.78276979983551</v>
+        <v>9.343824452299884</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>32.49309873434146</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>17.29946511080124</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28034,7 +28034,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>195.7825077669051</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>214.9797925970632</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28721,49 +28721,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>5.636002634530115</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28772,25 +28772,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28988,25 +28988,25 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5.636002634529149</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29219,13 +29219,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668788</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29240,7 +29240,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29945,10 +29945,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>5.636002634528353</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P34" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634528481</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -30167,13 +30167,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
-        <v>5.636002634528666</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30182,7 +30182,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>35.71049010668847</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30404,25 +30404,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668857</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>5.636002634529177</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="C41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="D41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="E41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="F41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="G41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="H41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="I41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="T41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="U41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="V41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="W41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="X41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="Y41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="C43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="D43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="E43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="F43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="G43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="H43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="I43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="J43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="K43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="L43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="M43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="N43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="O43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="P43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="R43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="S43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="T43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="U43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="V43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="W43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="X43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="Y43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316281</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="C44" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="D44" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="E44" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="F44" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="G44" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="H44" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="I44" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="T44" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="U44" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="V44" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="W44" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="X44" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="Y44" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="C46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="D46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="E46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="F46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="G46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="H46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="I46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="J46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="K46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="L46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="M46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="N46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="O46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="P46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="R46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="S46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="T46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="U46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="V46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="W46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="X46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
       <c r="Y46" t="n">
-        <v>74.20952426316272</v>
+        <v>74.20952426316281</v>
       </c>
     </row>
   </sheetData>
@@ -34701,16 +34701,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>351.8287486424433</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>349.6338154341907</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34719,7 +34719,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
         <v>591.4121262692951</v>
@@ -34792,13 +34792,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P3" t="n">
-        <v>400.4587381985462</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>74.2628630240068</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34950,10 +34950,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35026,7 +35026,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35035,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.465299698097541</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>314.7944296574907</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35187,13 +35187,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>44.47799132937524</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>302.9262961593793</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>259.444269251904</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>231.936431306898</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35506,7 +35506,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35588,7 +35588,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35816,7 +35816,7 @@
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35825,7 +35825,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35901,7 +35901,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>22.71185353989334</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873221</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36135,7 +36135,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
@@ -36217,10 +36217,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,25 +36284,25 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094879</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>249.385018246236</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>485.5370469911907</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634528808</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36536,7 +36536,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257369</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36694,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36770,10 +36770,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>444.4844453457863</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36919,19 +36919,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>233.8188708867233</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37010,7 +37010,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>259.444269251904</v>
+        <v>284.5297693407881</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37241,10 +37241,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>169.9842521716072</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P34" t="n">
-        <v>251.4470054535426</v>
+        <v>126.7230387724866</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37314,7 +37314,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37393,10 +37393,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
-        <v>88.29766032133864</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37478,7 +37478,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>200.0587396437673</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37548,7 +37548,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>113.782083667694</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37642,7 +37642,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.636002634529496</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>193.8093140873211</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37718,7 +37718,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37785,7 +37785,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>259.444269251904</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37879,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>44.13503679100364</v>
+        <v>44.13503679100373</v>
       </c>
       <c r="K43" t="n">
-        <v>156.8711819499727</v>
+        <v>156.8711819499728</v>
       </c>
       <c r="L43" t="n">
-        <v>239.9950190851827</v>
+        <v>239.9950190851828</v>
       </c>
       <c r="M43" t="n">
         <v>262.3828357159547</v>
       </c>
       <c r="N43" t="n">
-        <v>259.2495586381215</v>
+        <v>259.2495586381216</v>
       </c>
       <c r="O43" t="n">
         <v>238.5577738002416</v>
       </c>
       <c r="P43" t="n">
-        <v>195.2965604011209</v>
+        <v>195.296560401121</v>
       </c>
       <c r="Q43" t="n">
-        <v>77.66628827331519</v>
+        <v>77.66628827331529</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>583.1944794342759</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>44.13503679100365</v>
+        <v>44.13503679100373</v>
       </c>
       <c r="K46" t="n">
-        <v>156.8711819499727</v>
+        <v>156.8711819499728</v>
       </c>
       <c r="L46" t="n">
-        <v>239.9950190851827</v>
+        <v>239.9950190851828</v>
       </c>
       <c r="M46" t="n">
         <v>262.3828357159547</v>
       </c>
       <c r="N46" t="n">
-        <v>259.2495586381215</v>
+        <v>259.2495586381216</v>
       </c>
       <c r="O46" t="n">
         <v>238.5577738002416</v>
       </c>
       <c r="P46" t="n">
-        <v>195.2965604011209</v>
+        <v>195.296560401121</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.6662882733152</v>
+        <v>77.66628827331529</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
